--- a/Excel/PhantomAttrConfig.xlsx
+++ b/Excel/PhantomAttrConfig.xlsx
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="22">
   <si>
     <t>ID</t>
   </si>
@@ -129,10 +129,10 @@
     <t>int[]</t>
   </si>
   <si>
-    <t>500</t>
+    <t>13001</t>
   </si>
   <si>
-    <t>12001,13001</t>
+    <t>12001</t>
   </si>
   <si>
     <t>生命比例</t>
@@ -1110,7 +1110,7 @@
   <dimension ref="A1:T39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1119,9 +1119,9 @@
     <col min="2" max="2" width="9" style="2"/>
     <col min="3" max="3" width="9.875" style="1" customWidth="1"/>
     <col min="4" max="5" width="12.125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="8.5" style="2" customWidth="1"/>
-    <col min="8" max="8" width="9.875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="13" style="2" customWidth="1"/>
+    <col min="8" max="8" width="14.375" style="2" customWidth="1"/>
     <col min="9" max="9" width="11.375" style="2" customWidth="1"/>
     <col min="10" max="10" width="14" style="2" customWidth="1"/>
     <col min="11" max="11" width="11.375" style="2" customWidth="1"/>
@@ -1326,14 +1326,14 @@
       <c r="E6">
         <v>1</v>
       </c>
-      <c r="F6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" t="s">
-        <v>19</v>
+      <c r="F6">
+        <v>50000</v>
+      </c>
+      <c r="G6">
+        <v>40000</v>
       </c>
       <c r="H6">
-        <v>500000</v>
+        <v>50000000</v>
       </c>
       <c r="I6">
         <v>5</v>
@@ -1342,7 +1342,7 @@
         <v>50</v>
       </c>
       <c r="K6">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="L6">
         <v>15</v>
@@ -1353,7 +1353,9 @@
       <c r="N6" s="1">
         <v>5</v>
       </c>
-      <c r="O6" s="1"/>
+      <c r="O6" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="P6" s="5" t="s">
         <v>20</v>
       </c>
@@ -1374,15 +1376,15 @@
       </c>
       <c r="F7">
         <f t="shared" ref="F7:F16" si="0">F6*K6</f>
-        <v>5000</v>
+        <v>250000</v>
       </c>
       <c r="G7">
         <f t="shared" ref="G7:G16" si="1">G6*K6</f>
-        <v>5000</v>
+        <v>200000</v>
       </c>
       <c r="H7">
         <f t="shared" ref="H7:H16" si="2">H6*K6</f>
-        <v>5000000</v>
+        <v>250000000</v>
       </c>
       <c r="I7">
         <v>10</v>
@@ -1391,7 +1393,7 @@
         <v>50</v>
       </c>
       <c r="K7">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="L7">
         <v>15</v>
@@ -1403,7 +1405,9 @@
       <c r="N7" s="1">
         <v>5</v>
       </c>
-      <c r="O7" s="1"/>
+      <c r="O7" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="P7" s="5" t="s">
         <v>20</v>
       </c>
@@ -1424,15 +1428,15 @@
       </c>
       <c r="F8">
         <f t="shared" si="0"/>
-        <v>50000</v>
+        <v>1250000</v>
       </c>
       <c r="G8">
         <f t="shared" si="1"/>
-        <v>50000</v>
+        <v>1000000</v>
       </c>
       <c r="H8">
         <f t="shared" si="2"/>
-        <v>50000000</v>
+        <v>1250000000</v>
       </c>
       <c r="I8">
         <v>15</v>
@@ -1441,7 +1445,7 @@
         <v>50</v>
       </c>
       <c r="K8">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="L8">
         <v>15</v>
@@ -1453,7 +1457,9 @@
       <c r="N8" s="1">
         <v>5</v>
       </c>
-      <c r="O8" s="1"/>
+      <c r="O8" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="P8" s="5" t="s">
         <v>20</v>
       </c>
@@ -1474,15 +1480,15 @@
       </c>
       <c r="F9">
         <f t="shared" si="0"/>
-        <v>500000</v>
+        <v>6250000</v>
       </c>
       <c r="G9">
         <f t="shared" si="1"/>
-        <v>500000</v>
+        <v>5000000</v>
       </c>
       <c r="H9">
         <f t="shared" si="2"/>
-        <v>500000000</v>
+        <v>6250000000</v>
       </c>
       <c r="I9">
         <v>20</v>
@@ -1491,7 +1497,7 @@
         <v>50</v>
       </c>
       <c r="K9">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="L9">
         <v>15</v>
@@ -1503,7 +1509,9 @@
       <c r="N9" s="1">
         <v>5</v>
       </c>
-      <c r="O9" s="1"/>
+      <c r="O9" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="P9" s="5" t="s">
         <v>20</v>
       </c>
@@ -1524,15 +1532,15 @@
       </c>
       <c r="F10">
         <f t="shared" si="0"/>
-        <v>5000000</v>
+        <v>31250000</v>
       </c>
       <c r="G10">
         <f t="shared" si="1"/>
-        <v>5000000</v>
+        <v>25000000</v>
       </c>
       <c r="H10">
         <f t="shared" si="2"/>
-        <v>5000000000</v>
+        <v>31250000000</v>
       </c>
       <c r="I10">
         <v>25</v>
@@ -1541,7 +1549,7 @@
         <v>50</v>
       </c>
       <c r="K10">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="L10">
         <v>15</v>
@@ -1553,7 +1561,9 @@
       <c r="N10" s="1">
         <v>5</v>
       </c>
-      <c r="O10" s="1"/>
+      <c r="O10" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="P10" s="5" t="s">
         <v>20</v>
       </c>
@@ -1574,15 +1584,15 @@
       </c>
       <c r="F11">
         <f t="shared" si="0"/>
-        <v>50000000</v>
+        <v>156250000</v>
       </c>
       <c r="G11">
         <f t="shared" si="1"/>
-        <v>50000000</v>
+        <v>125000000</v>
       </c>
       <c r="H11">
         <f t="shared" si="2"/>
-        <v>50000000000</v>
+        <v>156250000000</v>
       </c>
       <c r="I11">
         <v>30</v>
@@ -1591,7 +1601,7 @@
         <v>50</v>
       </c>
       <c r="K11">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="L11">
         <v>15</v>
@@ -1603,7 +1613,9 @@
       <c r="N11" s="1">
         <v>5</v>
       </c>
-      <c r="O11" s="1"/>
+      <c r="O11" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="P11" s="5" t="s">
         <v>20</v>
       </c>
@@ -1624,15 +1636,15 @@
       </c>
       <c r="F12">
         <f t="shared" si="0"/>
-        <v>500000000</v>
+        <v>781250000</v>
       </c>
       <c r="G12">
         <f t="shared" si="1"/>
-        <v>500000000</v>
+        <v>625000000</v>
       </c>
       <c r="H12">
         <f t="shared" si="2"/>
-        <v>500000000000</v>
+        <v>781250000000</v>
       </c>
       <c r="I12">
         <v>35</v>
@@ -1641,7 +1653,7 @@
         <v>50</v>
       </c>
       <c r="K12">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="L12">
         <v>15</v>
@@ -1653,7 +1665,9 @@
       <c r="N12" s="1">
         <v>5</v>
       </c>
-      <c r="O12" s="1"/>
+      <c r="O12" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="P12" s="5" t="s">
         <v>20</v>
       </c>
@@ -1674,15 +1688,15 @@
       </c>
       <c r="F13">
         <f t="shared" si="0"/>
-        <v>5000000000</v>
+        <v>3906250000</v>
       </c>
       <c r="G13">
         <f t="shared" si="1"/>
-        <v>5000000000</v>
+        <v>3125000000</v>
       </c>
       <c r="H13">
         <f t="shared" si="2"/>
-        <v>5000000000000</v>
+        <v>3906250000000</v>
       </c>
       <c r="I13">
         <v>40</v>
@@ -1691,7 +1705,7 @@
         <v>50</v>
       </c>
       <c r="K13">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="L13">
         <v>15</v>
@@ -1703,7 +1717,9 @@
       <c r="N13" s="1">
         <v>5</v>
       </c>
-      <c r="O13" s="1"/>
+      <c r="O13" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="P13" s="5" t="s">
         <v>20</v>
       </c>
@@ -1724,15 +1740,15 @@
       </c>
       <c r="F14">
         <f t="shared" si="0"/>
-        <v>50000000000</v>
+        <v>19531250000</v>
       </c>
       <c r="G14">
         <f t="shared" si="1"/>
-        <v>50000000000</v>
+        <v>15625000000</v>
       </c>
       <c r="H14">
         <f t="shared" si="2"/>
-        <v>50000000000000</v>
+        <v>19531250000000</v>
       </c>
       <c r="I14">
         <v>45</v>
@@ -1741,7 +1757,7 @@
         <v>50</v>
       </c>
       <c r="K14">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="L14">
         <v>15</v>
@@ -1753,7 +1769,9 @@
       <c r="N14" s="1">
         <v>5</v>
       </c>
-      <c r="O14" s="1"/>
+      <c r="O14" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="P14" s="5" t="s">
         <v>20</v>
       </c>
@@ -1773,16 +1791,16 @@
         <v>10</v>
       </c>
       <c r="F15">
-        <f t="shared" si="0"/>
-        <v>500000000000</v>
+        <f>F14*K14</f>
+        <v>97656250000</v>
       </c>
       <c r="G15">
         <f t="shared" si="1"/>
-        <v>500000000000</v>
+        <v>78125000000</v>
       </c>
       <c r="H15">
         <f t="shared" si="2"/>
-        <v>500000000000000</v>
+        <v>97656250000000</v>
       </c>
       <c r="I15">
         <v>50</v>
@@ -1791,7 +1809,7 @@
         <v>50</v>
       </c>
       <c r="K15">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="L15">
         <v>15</v>
@@ -1803,7 +1821,9 @@
       <c r="N15" s="1">
         <v>5</v>
       </c>
-      <c r="O15" s="1"/>
+      <c r="O15" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="P15" s="5" t="s">
         <v>20</v>
       </c>

--- a/Excel/PhantomAttrConfig.xlsx
+++ b/Excel/PhantomAttrConfig.xlsx
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="23">
   <si>
     <t>ID</t>
   </si>
@@ -136,6 +136,9 @@
   </si>
   <si>
     <t>生命比例</t>
+  </si>
+  <si>
+    <t>12002</t>
   </si>
 </sst>
 </file>
@@ -314,12 +317,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1109,8 +1112,8 @@
   <sheetPr/>
   <dimension ref="A1:T39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1327,13 +1330,13 @@
         <v>1</v>
       </c>
       <c r="F6">
-        <v>50000</v>
+        <v>500</v>
       </c>
       <c r="G6">
-        <v>40000</v>
+        <v>500</v>
       </c>
       <c r="H6">
-        <v>50000000</v>
+        <v>500000</v>
       </c>
       <c r="I6">
         <v>5</v>
@@ -1376,15 +1379,15 @@
       </c>
       <c r="F7">
         <f t="shared" ref="F7:F16" si="0">F6*K6</f>
-        <v>250000</v>
+        <v>2500</v>
       </c>
       <c r="G7">
         <f t="shared" ref="G7:G16" si="1">G6*K6</f>
-        <v>200000</v>
+        <v>2500</v>
       </c>
       <c r="H7">
         <f t="shared" ref="H7:H16" si="2">H6*K6</f>
-        <v>250000000</v>
+        <v>2500000</v>
       </c>
       <c r="I7">
         <v>10</v>
@@ -1428,15 +1431,15 @@
       </c>
       <c r="F8">
         <f t="shared" si="0"/>
-        <v>1250000</v>
+        <v>12500</v>
       </c>
       <c r="G8">
         <f t="shared" si="1"/>
-        <v>1000000</v>
+        <v>12500</v>
       </c>
       <c r="H8">
         <f t="shared" si="2"/>
-        <v>1250000000</v>
+        <v>12500000</v>
       </c>
       <c r="I8">
         <v>15</v>
@@ -1480,15 +1483,15 @@
       </c>
       <c r="F9">
         <f t="shared" si="0"/>
-        <v>6250000</v>
+        <v>62500</v>
       </c>
       <c r="G9">
         <f t="shared" si="1"/>
-        <v>5000000</v>
+        <v>62500</v>
       </c>
       <c r="H9">
         <f t="shared" si="2"/>
-        <v>6250000000</v>
+        <v>62500000</v>
       </c>
       <c r="I9">
         <v>20</v>
@@ -1532,15 +1535,15 @@
       </c>
       <c r="F10">
         <f t="shared" si="0"/>
-        <v>31250000</v>
+        <v>312500</v>
       </c>
       <c r="G10">
         <f t="shared" si="1"/>
-        <v>25000000</v>
+        <v>312500</v>
       </c>
       <c r="H10">
         <f t="shared" si="2"/>
-        <v>31250000000</v>
+        <v>312500000</v>
       </c>
       <c r="I10">
         <v>25</v>
@@ -1584,15 +1587,15 @@
       </c>
       <c r="F11">
         <f t="shared" si="0"/>
-        <v>156250000</v>
+        <v>1562500</v>
       </c>
       <c r="G11">
         <f t="shared" si="1"/>
-        <v>125000000</v>
+        <v>1562500</v>
       </c>
       <c r="H11">
         <f t="shared" si="2"/>
-        <v>156250000000</v>
+        <v>1562500000</v>
       </c>
       <c r="I11">
         <v>30</v>
@@ -1636,15 +1639,15 @@
       </c>
       <c r="F12">
         <f t="shared" si="0"/>
-        <v>781250000</v>
+        <v>7812500</v>
       </c>
       <c r="G12">
         <f t="shared" si="1"/>
-        <v>625000000</v>
+        <v>7812500</v>
       </c>
       <c r="H12">
         <f t="shared" si="2"/>
-        <v>781250000000</v>
+        <v>7812500000</v>
       </c>
       <c r="I12">
         <v>35</v>
@@ -1688,15 +1691,15 @@
       </c>
       <c r="F13">
         <f t="shared" si="0"/>
-        <v>3906250000</v>
+        <v>39062500</v>
       </c>
       <c r="G13">
         <f t="shared" si="1"/>
-        <v>3125000000</v>
+        <v>39062500</v>
       </c>
       <c r="H13">
         <f t="shared" si="2"/>
-        <v>3906250000000</v>
+        <v>39062500000</v>
       </c>
       <c r="I13">
         <v>40</v>
@@ -1740,15 +1743,15 @@
       </c>
       <c r="F14">
         <f t="shared" si="0"/>
-        <v>19531250000</v>
+        <v>195312500</v>
       </c>
       <c r="G14">
         <f t="shared" si="1"/>
-        <v>15625000000</v>
+        <v>195312500</v>
       </c>
       <c r="H14">
         <f t="shared" si="2"/>
-        <v>19531250000000</v>
+        <v>195312500000</v>
       </c>
       <c r="I14">
         <v>45</v>
@@ -1791,16 +1794,16 @@
         <v>10</v>
       </c>
       <c r="F15">
-        <f>F14*K14</f>
-        <v>97656250000</v>
+        <f t="shared" si="0"/>
+        <v>976562500</v>
       </c>
       <c r="G15">
         <f t="shared" si="1"/>
-        <v>78125000000</v>
+        <v>976562500</v>
       </c>
       <c r="H15">
         <f t="shared" si="2"/>
-        <v>97656250000000</v>
+        <v>976562500000</v>
       </c>
       <c r="I15">
         <v>50</v>
@@ -1832,185 +1835,521 @@
       </c>
       <c r="R15" s="1"/>
     </row>
-    <row r="16" ht="24" customHeight="1" spans="3:18">
-      <c r="C16"/>
-      <c r="D16"/>
-      <c r="E16"/>
-      <c r="F16"/>
-      <c r="G16"/>
-      <c r="H16"/>
-      <c r="I16"/>
-      <c r="J16"/>
-      <c r="K16"/>
-      <c r="L16"/>
-      <c r="M16"/>
-      <c r="N16"/>
-      <c r="O16"/>
-      <c r="P16"/>
-      <c r="Q16"/>
-      <c r="R16"/>
-    </row>
-    <row r="17" ht="24" customHeight="1" spans="3:18">
-      <c r="C17"/>
-      <c r="D17"/>
-      <c r="E17"/>
-      <c r="F17"/>
-      <c r="G17"/>
-      <c r="H17"/>
-      <c r="I17"/>
-      <c r="J17"/>
-      <c r="K17"/>
-      <c r="L17"/>
-      <c r="M17"/>
-      <c r="N17"/>
-      <c r="O17"/>
-      <c r="P17"/>
-      <c r="Q17"/>
-      <c r="R17"/>
-    </row>
-    <row r="18" ht="24" customHeight="1" spans="3:18">
-      <c r="C18"/>
-      <c r="D18"/>
-      <c r="E18"/>
-      <c r="F18"/>
-      <c r="G18"/>
-      <c r="H18"/>
-      <c r="I18"/>
-      <c r="J18"/>
-      <c r="K18"/>
-      <c r="L18"/>
-      <c r="M18"/>
-      <c r="N18"/>
-      <c r="O18"/>
-      <c r="P18"/>
-      <c r="Q18"/>
-      <c r="R18"/>
-    </row>
-    <row r="19" ht="24" customHeight="1" spans="3:18">
-      <c r="C19"/>
-      <c r="D19"/>
-      <c r="E19"/>
-      <c r="F19"/>
-      <c r="G19"/>
-      <c r="H19"/>
-      <c r="I19"/>
-      <c r="J19"/>
-      <c r="K19"/>
-      <c r="L19"/>
-      <c r="M19"/>
-      <c r="N19"/>
-      <c r="O19"/>
-      <c r="P19"/>
-      <c r="Q19"/>
-      <c r="R19"/>
-    </row>
-    <row r="20" ht="24" customHeight="1" spans="3:18">
-      <c r="C20"/>
-      <c r="D20"/>
-      <c r="E20"/>
-      <c r="F20"/>
-      <c r="G20"/>
-      <c r="H20"/>
-      <c r="I20"/>
-      <c r="J20"/>
-      <c r="K20"/>
-      <c r="L20"/>
-      <c r="M20"/>
-      <c r="N20"/>
-      <c r="O20"/>
-      <c r="P20"/>
-      <c r="Q20"/>
-      <c r="R20"/>
-    </row>
-    <row r="21" ht="24" customHeight="1" spans="3:18">
-      <c r="C21"/>
-      <c r="D21"/>
-      <c r="E21"/>
-      <c r="F21"/>
-      <c r="G21"/>
-      <c r="H21"/>
-      <c r="I21"/>
-      <c r="J21"/>
-      <c r="K21"/>
-      <c r="L21"/>
-      <c r="M21"/>
-      <c r="N21"/>
-      <c r="O21"/>
-      <c r="P21"/>
-      <c r="Q21"/>
-      <c r="R21"/>
-    </row>
-    <row r="22" ht="24" customHeight="1" spans="3:18">
-      <c r="C22"/>
-      <c r="D22"/>
-      <c r="E22"/>
-      <c r="F22"/>
-      <c r="G22"/>
-      <c r="H22"/>
-      <c r="I22"/>
-      <c r="J22"/>
-      <c r="K22"/>
-      <c r="L22"/>
-      <c r="M22"/>
-      <c r="N22"/>
-      <c r="O22"/>
-      <c r="P22"/>
-      <c r="Q22"/>
-      <c r="R22"/>
-    </row>
-    <row r="23" ht="24" customHeight="1" spans="3:18">
-      <c r="C23"/>
-      <c r="D23"/>
-      <c r="E23"/>
-      <c r="F23"/>
-      <c r="G23"/>
-      <c r="H23"/>
-      <c r="I23"/>
-      <c r="J23"/>
-      <c r="K23"/>
-      <c r="L23"/>
-      <c r="M23"/>
-      <c r="N23"/>
-      <c r="O23"/>
-      <c r="P23"/>
-      <c r="Q23"/>
-      <c r="R23"/>
-    </row>
-    <row r="24" ht="24" customHeight="1" spans="3:18">
-      <c r="C24"/>
-      <c r="D24"/>
-      <c r="E24"/>
-      <c r="F24"/>
-      <c r="G24"/>
-      <c r="H24"/>
-      <c r="I24"/>
-      <c r="J24"/>
-      <c r="K24"/>
-      <c r="L24"/>
-      <c r="M24"/>
-      <c r="N24"/>
-      <c r="O24"/>
-      <c r="P24"/>
-      <c r="Q24"/>
-      <c r="R24"/>
-    </row>
-    <row r="25" ht="24" customHeight="1" spans="3:18">
-      <c r="C25"/>
-      <c r="D25"/>
-      <c r="E25"/>
-      <c r="F25"/>
-      <c r="G25"/>
-      <c r="H25"/>
-      <c r="I25"/>
-      <c r="J25"/>
-      <c r="K25"/>
-      <c r="L25"/>
-      <c r="M25"/>
-      <c r="N25"/>
-      <c r="O25"/>
-      <c r="P25"/>
-      <c r="Q25"/>
-      <c r="R25"/>
+    <row r="16" customFormat="1" ht="27" customHeight="1" spans="3:18">
+      <c r="C16">
+        <v>201</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>50000</v>
+      </c>
+      <c r="G16">
+        <v>40000</v>
+      </c>
+      <c r="H16">
+        <v>50000000</v>
+      </c>
+      <c r="I16">
+        <v>5</v>
+      </c>
+      <c r="J16">
+        <v>50</v>
+      </c>
+      <c r="K16">
+        <v>5</v>
+      </c>
+      <c r="L16">
+        <v>14</v>
+      </c>
+      <c r="M16">
+        <v>5</v>
+      </c>
+      <c r="N16" s="1">
+        <v>5</v>
+      </c>
+      <c r="O16" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="P16" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="R16" s="1"/>
+    </row>
+    <row r="17" customFormat="1" ht="27" customHeight="1" spans="3:18">
+      <c r="C17">
+        <v>202</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <f t="shared" ref="F17:F25" si="4">F16*K16</f>
+        <v>250000</v>
+      </c>
+      <c r="G17">
+        <f t="shared" ref="G17:G25" si="5">G16*K16</f>
+        <v>200000</v>
+      </c>
+      <c r="H17">
+        <f t="shared" ref="H17:H25" si="6">H16*K16</f>
+        <v>250000000</v>
+      </c>
+      <c r="I17">
+        <v>10</v>
+      </c>
+      <c r="J17">
+        <v>50</v>
+      </c>
+      <c r="K17">
+        <v>5</v>
+      </c>
+      <c r="L17">
+        <v>14</v>
+      </c>
+      <c r="M17">
+        <f t="shared" ref="M17:M25" si="7">M16+N16</f>
+        <v>10</v>
+      </c>
+      <c r="N17" s="1">
+        <v>5</v>
+      </c>
+      <c r="O17" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="P17" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="R17" s="1"/>
+    </row>
+    <row r="18" customFormat="1" ht="27" customHeight="1" spans="3:18">
+      <c r="C18">
+        <v>203</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="4"/>
+        <v>1250000</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="5"/>
+        <v>1000000</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="6"/>
+        <v>1250000000</v>
+      </c>
+      <c r="I18">
+        <v>15</v>
+      </c>
+      <c r="J18">
+        <v>50</v>
+      </c>
+      <c r="K18">
+        <v>5</v>
+      </c>
+      <c r="L18">
+        <v>14</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="7"/>
+        <v>15</v>
+      </c>
+      <c r="N18" s="1">
+        <v>5</v>
+      </c>
+      <c r="O18" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="P18" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="R18" s="1"/>
+    </row>
+    <row r="19" customFormat="1" ht="27" customHeight="1" spans="3:18">
+      <c r="C19">
+        <v>204</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19">
+        <v>4</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="4"/>
+        <v>6250000</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="5"/>
+        <v>5000000</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="6"/>
+        <v>6250000000</v>
+      </c>
+      <c r="I19">
+        <v>20</v>
+      </c>
+      <c r="J19">
+        <v>50</v>
+      </c>
+      <c r="K19">
+        <v>5</v>
+      </c>
+      <c r="L19">
+        <v>14</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
+      <c r="N19" s="1">
+        <v>5</v>
+      </c>
+      <c r="O19" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="P19" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="R19" s="1"/>
+    </row>
+    <row r="20" customFormat="1" ht="27" customHeight="1" spans="3:18">
+      <c r="C20">
+        <v>205</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20">
+        <v>5</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="4"/>
+        <v>31250000</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="5"/>
+        <v>25000000</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="6"/>
+        <v>31250000000</v>
+      </c>
+      <c r="I20">
+        <v>25</v>
+      </c>
+      <c r="J20">
+        <v>50</v>
+      </c>
+      <c r="K20">
+        <v>5</v>
+      </c>
+      <c r="L20">
+        <v>14</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="7"/>
+        <v>25</v>
+      </c>
+      <c r="N20" s="1">
+        <v>5</v>
+      </c>
+      <c r="O20" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="P20" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="R20" s="1"/>
+    </row>
+    <row r="21" customFormat="1" ht="27" customHeight="1" spans="3:18">
+      <c r="C21">
+        <v>206</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21">
+        <v>6</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="4"/>
+        <v>156250000</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="5"/>
+        <v>125000000</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="6"/>
+        <v>156250000000</v>
+      </c>
+      <c r="I21">
+        <v>30</v>
+      </c>
+      <c r="J21">
+        <v>50</v>
+      </c>
+      <c r="K21">
+        <v>5</v>
+      </c>
+      <c r="L21">
+        <v>14</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="7"/>
+        <v>30</v>
+      </c>
+      <c r="N21" s="1">
+        <v>5</v>
+      </c>
+      <c r="O21" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="P21" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="R21" s="1"/>
+    </row>
+    <row r="22" customFormat="1" ht="27" customHeight="1" spans="3:18">
+      <c r="C22">
+        <v>207</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22">
+        <v>7</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="4"/>
+        <v>781250000</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="5"/>
+        <v>625000000</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="6"/>
+        <v>781250000000</v>
+      </c>
+      <c r="I22">
+        <v>35</v>
+      </c>
+      <c r="J22">
+        <v>50</v>
+      </c>
+      <c r="K22">
+        <v>5</v>
+      </c>
+      <c r="L22">
+        <v>14</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="7"/>
+        <v>35</v>
+      </c>
+      <c r="N22" s="1">
+        <v>5</v>
+      </c>
+      <c r="O22" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="P22" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="R22" s="1"/>
+    </row>
+    <row r="23" customFormat="1" ht="27" customHeight="1" spans="3:18">
+      <c r="C23">
+        <v>208</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+      <c r="E23">
+        <v>8</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="4"/>
+        <v>3906250000</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="5"/>
+        <v>3125000000</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="6"/>
+        <v>3906250000000</v>
+      </c>
+      <c r="I23">
+        <v>40</v>
+      </c>
+      <c r="J23">
+        <v>50</v>
+      </c>
+      <c r="K23">
+        <v>5</v>
+      </c>
+      <c r="L23">
+        <v>14</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="7"/>
+        <v>40</v>
+      </c>
+      <c r="N23" s="1">
+        <v>5</v>
+      </c>
+      <c r="O23" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="P23" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="R23" s="1"/>
+    </row>
+    <row r="24" customFormat="1" ht="27" customHeight="1" spans="3:18">
+      <c r="C24">
+        <v>209</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="E24">
+        <v>9</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="4"/>
+        <v>19531250000</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="5"/>
+        <v>15625000000</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="6"/>
+        <v>19531250000000</v>
+      </c>
+      <c r="I24">
+        <v>45</v>
+      </c>
+      <c r="J24">
+        <v>50</v>
+      </c>
+      <c r="K24">
+        <v>5</v>
+      </c>
+      <c r="L24">
+        <v>14</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="7"/>
+        <v>45</v>
+      </c>
+      <c r="N24" s="1">
+        <v>5</v>
+      </c>
+      <c r="O24" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="P24" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="R24" s="1"/>
+    </row>
+    <row r="25" customFormat="1" ht="27" customHeight="1" spans="3:18">
+      <c r="C25">
+        <v>210</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+      <c r="E25">
+        <v>10</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="4"/>
+        <v>97656250000</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="5"/>
+        <v>78125000000</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="6"/>
+        <v>97656250000000</v>
+      </c>
+      <c r="I25">
+        <v>50</v>
+      </c>
+      <c r="J25">
+        <v>50</v>
+      </c>
+      <c r="K25">
+        <v>5</v>
+      </c>
+      <c r="L25">
+        <v>14</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="N25" s="1">
+        <v>5</v>
+      </c>
+      <c r="O25" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="P25" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q25" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="R25" s="1"/>
     </row>
     <row r="26" ht="24" customHeight="1" spans="3:18">
       <c r="C26"/>

--- a/Excel/PhantomAttrConfig.xlsx
+++ b/Excel/PhantomAttrConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="11820"/>
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <author>admin</author>
   </authors>
   <commentList>
-    <comment ref="R3" authorId="0">
+    <comment ref="S3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -43,7 +43,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N4" authorId="0">
+    <comment ref="O4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="28">
   <si>
     <t>ID</t>
   </si>
@@ -91,6 +91,9 @@
   </si>
   <si>
     <t>DamageIncrea</t>
+  </si>
+  <si>
+    <t>DamageResist</t>
   </si>
   <si>
     <t>CritRate</t>
@@ -140,11 +143,23 @@
   <si>
     <t>12002</t>
   </si>
+  <si>
+    <t>攻击比例</t>
+  </si>
+  <si>
+    <t>11002</t>
+  </si>
+  <si>
+    <t>13003</t>
+  </si>
+  <si>
+    <t>防御比例</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -173,6 +188,34 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -186,6 +229,14 @@
       <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -225,21 +276,6 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -290,36 +326,10 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -327,6 +337,11 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -343,13 +358,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -367,24 +424,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -403,18 +472,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -427,36 +484,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -475,24 +508,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -506,12 +527,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -534,6 +549,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -566,21 +596,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -637,148 +652,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -794,52 +809,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1110,10 +1125,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T39"/>
+  <dimension ref="A1:U39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
+    <sheetView tabSelected="1" topLeftCell="B18" workbookViewId="0">
+      <selection activeCell="Q26" sqref="Q26:Q35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1125,21 +1140,21 @@
     <col min="6" max="6" width="14.625" style="2" customWidth="1"/>
     <col min="7" max="7" width="13" style="2" customWidth="1"/>
     <col min="8" max="8" width="14.375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="11.375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="14" style="2" customWidth="1"/>
-    <col min="11" max="11" width="11.375" style="2" customWidth="1"/>
-    <col min="12" max="12" width="15.5" style="2" customWidth="1"/>
-    <col min="13" max="13" width="13" style="2" customWidth="1"/>
-    <col min="14" max="14" width="13.375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.5" style="1" customWidth="1"/>
-    <col min="16" max="16" width="13.375" style="1" customWidth="1"/>
-    <col min="17" max="18" width="30.125" style="1" customWidth="1"/>
-    <col min="19" max="19" width="8.125" style="2" customWidth="1"/>
-    <col min="20" max="20" width="9.625" style="2" customWidth="1"/>
-    <col min="21" max="16384" width="9" style="2"/>
+    <col min="9" max="10" width="11.375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="14" style="2" customWidth="1"/>
+    <col min="12" max="12" width="11.375" style="2" customWidth="1"/>
+    <col min="13" max="13" width="15.5" style="2" customWidth="1"/>
+    <col min="14" max="14" width="13" style="2" customWidth="1"/>
+    <col min="15" max="15" width="13.375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="11.5" style="1" customWidth="1"/>
+    <col min="17" max="17" width="13.375" style="1" customWidth="1"/>
+    <col min="18" max="19" width="30.125" style="1" customWidth="1"/>
+    <col min="20" max="20" width="8.125" style="2" customWidth="1"/>
+    <col min="21" max="21" width="9.625" style="2" customWidth="1"/>
+    <col min="22" max="16383" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:20">
+    <row r="1" s="1" customFormat="1" spans="1:21">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="F1" s="2"/>
@@ -1150,10 +1165,11 @@
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
-      <c r="S1" s="2"/>
+      <c r="N1" s="2"/>
       <c r="T1" s="2"/>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:20">
+      <c r="U1" s="2"/>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:21">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="F2" s="2"/>
@@ -1164,10 +1180,11 @@
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
-      <c r="S2" s="2"/>
+      <c r="N2" s="2"/>
       <c r="T2" s="2"/>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:20">
+      <c r="U2" s="2"/>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:21">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="3" t="s">
@@ -1203,7 +1220,7 @@
       <c r="M3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="N3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="O3" s="4" t="s">
@@ -1215,15 +1232,18 @@
       <c r="Q3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="R3" s="4"/>
-      <c r="S3" s="2"/>
+      <c r="R3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="S3" s="4"/>
       <c r="T3" s="2"/>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:20">
+      <c r="U3" s="2"/>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:21">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>1</v>
@@ -1255,7 +1275,7 @@
       <c r="M4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="N4" s="3" t="s">
         <v>11</v>
       </c>
       <c r="O4" s="4" t="s">
@@ -1264,62 +1284,68 @@
       <c r="P4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="Q4" s="4"/>
+      <c r="Q4" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="R4" s="4"/>
-      <c r="S4" s="2"/>
+      <c r="S4" s="4"/>
       <c r="T4" s="2"/>
-    </row>
-    <row r="5" s="1" customFormat="1" spans="1:20">
+      <c r="U4" s="2"/>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:21">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="M5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="N5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="O5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="O5" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="P5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q5" s="4"/>
+        <v>19</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="R5" s="4"/>
-      <c r="S5" s="2"/>
+      <c r="S5" s="4"/>
       <c r="T5" s="2"/>
-    </row>
-    <row r="6" customFormat="1" ht="27" customHeight="1" spans="3:18">
+      <c r="U5" s="2"/>
+    </row>
+    <row r="6" customFormat="1" ht="27" customHeight="1" spans="3:19">
       <c r="C6">
         <v>1</v>
       </c>
@@ -1342,32 +1368,35 @@
         <v>5</v>
       </c>
       <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
         <v>50</v>
       </c>
-      <c r="K6">
-        <v>5</v>
-      </c>
       <c r="L6">
+        <v>5</v>
+      </c>
+      <c r="M6">
         <v>15</v>
       </c>
-      <c r="M6">
-        <v>5</v>
-      </c>
-      <c r="N6" s="1">
-        <v>5</v>
-      </c>
-      <c r="O6" s="5" t="s">
-        <v>19</v>
+      <c r="N6">
+        <v>5</v>
+      </c>
+      <c r="O6" s="1">
+        <v>5</v>
       </c>
       <c r="P6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="Q6" s="1" t="s">
+      <c r="Q6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="R6" s="1"/>
-    </row>
-    <row r="7" customFormat="1" ht="27" customHeight="1" spans="3:18">
+      <c r="R6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="S6" s="1"/>
+    </row>
+    <row r="7" customFormat="1" ht="27" customHeight="1" spans="3:19">
       <c r="C7">
         <v>2</v>
       </c>
@@ -1378,48 +1407,49 @@
         <v>2</v>
       </c>
       <c r="F7">
-        <f t="shared" ref="F7:F16" si="0">F6*K6</f>
+        <f t="shared" ref="F7:F16" si="0">F6*L6</f>
         <v>2500</v>
       </c>
       <c r="G7">
-        <f t="shared" ref="G7:G16" si="1">G6*K6</f>
+        <f t="shared" ref="G7:G16" si="1">G6*L6</f>
         <v>2500</v>
       </c>
       <c r="H7">
-        <f t="shared" ref="H7:H16" si="2">H6*K6</f>
+        <f t="shared" ref="H7:H16" si="2">H6*L6</f>
         <v>2500000</v>
       </c>
       <c r="I7">
         <v>10</v>
       </c>
       <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
         <v>50</v>
       </c>
-      <c r="K7">
-        <v>5</v>
-      </c>
       <c r="L7">
+        <v>5</v>
+      </c>
+      <c r="M7">
         <v>15</v>
       </c>
-      <c r="M7">
-        <f t="shared" ref="M7:M16" si="3">M6+N6</f>
+      <c r="N7">
+        <f t="shared" ref="N7:N16" si="3">N6+O6</f>
         <v>10</v>
       </c>
-      <c r="N7" s="1">
-        <v>5</v>
-      </c>
-      <c r="O7" s="5" t="s">
-        <v>19</v>
+      <c r="O7" s="1">
+        <v>5</v>
       </c>
       <c r="P7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="Q7" s="1" t="s">
+      <c r="Q7" s="5" t="s">
         <v>21</v>
       </c>
       <c r="R7" s="1"/>
-    </row>
-    <row r="8" customFormat="1" ht="27" customHeight="1" spans="3:18">
+      <c r="S7" s="1"/>
+    </row>
+    <row r="8" customFormat="1" ht="27" customHeight="1" spans="3:19">
       <c r="C8">
         <v>3</v>
       </c>
@@ -1445,33 +1475,34 @@
         <v>15</v>
       </c>
       <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
         <v>50</v>
       </c>
-      <c r="K8">
-        <v>5</v>
-      </c>
       <c r="L8">
+        <v>5</v>
+      </c>
+      <c r="M8">
         <v>15</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
-      <c r="N8" s="1">
-        <v>5</v>
-      </c>
-      <c r="O8" s="5" t="s">
-        <v>19</v>
+      <c r="O8" s="1">
+        <v>5</v>
       </c>
       <c r="P8" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="Q8" s="1" t="s">
+      <c r="Q8" s="5" t="s">
         <v>21</v>
       </c>
       <c r="R8" s="1"/>
-    </row>
-    <row r="9" customFormat="1" ht="27" customHeight="1" spans="3:18">
+      <c r="S8" s="1"/>
+    </row>
+    <row r="9" customFormat="1" ht="27" customHeight="1" spans="3:19">
       <c r="C9">
         <v>4</v>
       </c>
@@ -1497,33 +1528,34 @@
         <v>20</v>
       </c>
       <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
         <v>50</v>
       </c>
-      <c r="K9">
-        <v>5</v>
-      </c>
       <c r="L9">
+        <v>5</v>
+      </c>
+      <c r="M9">
         <v>15</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="N9" s="1">
-        <v>5</v>
-      </c>
-      <c r="O9" s="5" t="s">
-        <v>19</v>
+      <c r="O9" s="1">
+        <v>5</v>
       </c>
       <c r="P9" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="Q9" s="1" t="s">
+      <c r="Q9" s="5" t="s">
         <v>21</v>
       </c>
       <c r="R9" s="1"/>
-    </row>
-    <row r="10" customFormat="1" ht="27" customHeight="1" spans="3:18">
+      <c r="S9" s="1"/>
+    </row>
+    <row r="10" customFormat="1" ht="27" customHeight="1" spans="3:19">
       <c r="C10">
         <v>5</v>
       </c>
@@ -1549,33 +1581,34 @@
         <v>25</v>
       </c>
       <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
         <v>50</v>
       </c>
-      <c r="K10">
-        <v>5</v>
-      </c>
       <c r="L10">
+        <v>5</v>
+      </c>
+      <c r="M10">
         <v>15</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <f t="shared" si="3"/>
         <v>25</v>
       </c>
-      <c r="N10" s="1">
-        <v>5</v>
-      </c>
-      <c r="O10" s="5" t="s">
-        <v>19</v>
+      <c r="O10" s="1">
+        <v>5</v>
       </c>
       <c r="P10" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="Q10" s="1" t="s">
+      <c r="Q10" s="5" t="s">
         <v>21</v>
       </c>
       <c r="R10" s="1"/>
-    </row>
-    <row r="11" customFormat="1" ht="27" customHeight="1" spans="3:18">
+      <c r="S10" s="1"/>
+    </row>
+    <row r="11" customFormat="1" ht="27" customHeight="1" spans="3:19">
       <c r="C11">
         <v>6</v>
       </c>
@@ -1601,33 +1634,34 @@
         <v>30</v>
       </c>
       <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
         <v>50</v>
       </c>
-      <c r="K11">
-        <v>5</v>
-      </c>
       <c r="L11">
+        <v>5</v>
+      </c>
+      <c r="M11">
         <v>15</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
-      <c r="N11" s="1">
-        <v>5</v>
-      </c>
-      <c r="O11" s="5" t="s">
-        <v>19</v>
+      <c r="O11" s="1">
+        <v>5</v>
       </c>
       <c r="P11" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="Q11" s="1" t="s">
+      <c r="Q11" s="5" t="s">
         <v>21</v>
       </c>
       <c r="R11" s="1"/>
-    </row>
-    <row r="12" customFormat="1" ht="27" customHeight="1" spans="3:18">
+      <c r="S11" s="1"/>
+    </row>
+    <row r="12" customFormat="1" ht="27" customHeight="1" spans="3:19">
       <c r="C12">
         <v>7</v>
       </c>
@@ -1653,33 +1687,34 @@
         <v>35</v>
       </c>
       <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
         <v>50</v>
       </c>
-      <c r="K12">
-        <v>5</v>
-      </c>
       <c r="L12">
+        <v>5</v>
+      </c>
+      <c r="M12">
         <v>15</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
-      <c r="N12" s="1">
-        <v>5</v>
-      </c>
-      <c r="O12" s="5" t="s">
-        <v>19</v>
+      <c r="O12" s="1">
+        <v>5</v>
       </c>
       <c r="P12" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="Q12" s="1" t="s">
+      <c r="Q12" s="5" t="s">
         <v>21</v>
       </c>
       <c r="R12" s="1"/>
-    </row>
-    <row r="13" customFormat="1" ht="27" customHeight="1" spans="3:18">
+      <c r="S12" s="1"/>
+    </row>
+    <row r="13" customFormat="1" ht="27" customHeight="1" spans="3:19">
       <c r="C13">
         <v>8</v>
       </c>
@@ -1705,33 +1740,34 @@
         <v>40</v>
       </c>
       <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
         <v>50</v>
       </c>
-      <c r="K13">
-        <v>5</v>
-      </c>
       <c r="L13">
+        <v>5</v>
+      </c>
+      <c r="M13">
         <v>15</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <f t="shared" si="3"/>
         <v>40</v>
       </c>
-      <c r="N13" s="1">
-        <v>5</v>
-      </c>
-      <c r="O13" s="5" t="s">
-        <v>19</v>
+      <c r="O13" s="1">
+        <v>5</v>
       </c>
       <c r="P13" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="Q13" s="1" t="s">
+      <c r="Q13" s="5" t="s">
         <v>21</v>
       </c>
       <c r="R13" s="1"/>
-    </row>
-    <row r="14" customFormat="1" ht="27" customHeight="1" spans="3:18">
+      <c r="S13" s="1"/>
+    </row>
+    <row r="14" customFormat="1" ht="27" customHeight="1" spans="3:19">
       <c r="C14">
         <v>9</v>
       </c>
@@ -1757,33 +1793,34 @@
         <v>45</v>
       </c>
       <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
         <v>50</v>
       </c>
-      <c r="K14">
-        <v>5</v>
-      </c>
       <c r="L14">
+        <v>5</v>
+      </c>
+      <c r="M14">
         <v>15</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="N14" s="1">
-        <v>5</v>
-      </c>
-      <c r="O14" s="5" t="s">
-        <v>19</v>
+      <c r="O14" s="1">
+        <v>5</v>
       </c>
       <c r="P14" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="Q14" s="1" t="s">
+      <c r="Q14" s="5" t="s">
         <v>21</v>
       </c>
       <c r="R14" s="1"/>
-    </row>
-    <row r="15" customFormat="1" ht="27" customHeight="1" spans="3:18">
+      <c r="S14" s="1"/>
+    </row>
+    <row r="15" customFormat="1" ht="27" customHeight="1" spans="3:19">
       <c r="C15">
         <v>10</v>
       </c>
@@ -1809,33 +1846,34 @@
         <v>50</v>
       </c>
       <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
         <v>50</v>
       </c>
-      <c r="K15">
-        <v>5</v>
-      </c>
       <c r="L15">
+        <v>5</v>
+      </c>
+      <c r="M15">
         <v>15</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="N15" s="1">
-        <v>5</v>
-      </c>
-      <c r="O15" s="5" t="s">
-        <v>19</v>
+      <c r="O15" s="1">
+        <v>5</v>
       </c>
       <c r="P15" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="Q15" s="1" t="s">
+      <c r="Q15" s="5" t="s">
         <v>21</v>
       </c>
       <c r="R15" s="1"/>
-    </row>
-    <row r="16" customFormat="1" ht="27" customHeight="1" spans="3:18">
+      <c r="S15" s="1"/>
+    </row>
+    <row r="16" customFormat="1" ht="27" customHeight="1" spans="3:19">
       <c r="C16">
         <v>201</v>
       </c>
@@ -1858,32 +1896,35 @@
         <v>5</v>
       </c>
       <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
         <v>50</v>
       </c>
-      <c r="K16">
-        <v>5</v>
-      </c>
       <c r="L16">
+        <v>5</v>
+      </c>
+      <c r="M16">
         <v>14</v>
       </c>
-      <c r="M16">
-        <v>5</v>
-      </c>
-      <c r="N16" s="1">
-        <v>5</v>
-      </c>
-      <c r="O16" s="5" t="s">
-        <v>22</v>
+      <c r="N16">
+        <v>5</v>
+      </c>
+      <c r="O16" s="1">
+        <v>5</v>
       </c>
       <c r="P16" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="R16" s="1"/>
-    </row>
-    <row r="17" customFormat="1" ht="27" customHeight="1" spans="3:18">
+        <v>23</v>
+      </c>
+      <c r="Q16" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="S16" s="1"/>
+    </row>
+    <row r="17" customFormat="1" ht="27" customHeight="1" spans="3:19">
       <c r="C17">
         <v>202</v>
       </c>
@@ -1894,48 +1935,49 @@
         <v>2</v>
       </c>
       <c r="F17">
-        <f t="shared" ref="F17:F25" si="4">F16*K16</f>
+        <f t="shared" ref="F17:F25" si="4">F16*L16</f>
         <v>250000</v>
       </c>
       <c r="G17">
-        <f t="shared" ref="G17:G25" si="5">G16*K16</f>
+        <f t="shared" ref="G17:G25" si="5">G16*L16</f>
         <v>200000</v>
       </c>
       <c r="H17">
-        <f t="shared" ref="H17:H25" si="6">H16*K16</f>
+        <f t="shared" ref="H17:H25" si="6">H16*L16</f>
         <v>250000000</v>
       </c>
       <c r="I17">
         <v>10</v>
       </c>
       <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
         <v>50</v>
       </c>
-      <c r="K17">
-        <v>5</v>
-      </c>
       <c r="L17">
+        <v>5</v>
+      </c>
+      <c r="M17">
         <v>14</v>
       </c>
-      <c r="M17">
-        <f t="shared" ref="M17:M25" si="7">M16+N16</f>
+      <c r="N17">
+        <f t="shared" ref="N17:N25" si="7">N16+O16</f>
         <v>10</v>
       </c>
-      <c r="N17" s="1">
-        <v>5</v>
-      </c>
-      <c r="O17" s="5" t="s">
-        <v>22</v>
+      <c r="O17" s="1">
+        <v>5</v>
       </c>
       <c r="P17" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q17" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
+      </c>
+      <c r="Q17" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="R17" s="1"/>
-    </row>
-    <row r="18" customFormat="1" ht="27" customHeight="1" spans="3:18">
+      <c r="S17" s="1"/>
+    </row>
+    <row r="18" customFormat="1" ht="27" customHeight="1" spans="3:19">
       <c r="C18">
         <v>203</v>
       </c>
@@ -1961,33 +2003,34 @@
         <v>15</v>
       </c>
       <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
         <v>50</v>
       </c>
-      <c r="K18">
-        <v>5</v>
-      </c>
       <c r="L18">
+        <v>5</v>
+      </c>
+      <c r="M18">
         <v>14</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <f t="shared" si="7"/>
         <v>15</v>
       </c>
-      <c r="N18" s="1">
-        <v>5</v>
-      </c>
-      <c r="O18" s="5" t="s">
-        <v>22</v>
+      <c r="O18" s="1">
+        <v>5</v>
       </c>
       <c r="P18" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q18" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
+      </c>
+      <c r="Q18" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="R18" s="1"/>
-    </row>
-    <row r="19" customFormat="1" ht="27" customHeight="1" spans="3:18">
+      <c r="S18" s="1"/>
+    </row>
+    <row r="19" customFormat="1" ht="27" customHeight="1" spans="3:19">
       <c r="C19">
         <v>204</v>
       </c>
@@ -2013,33 +2056,34 @@
         <v>20</v>
       </c>
       <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
         <v>50</v>
       </c>
-      <c r="K19">
-        <v>5</v>
-      </c>
       <c r="L19">
+        <v>5</v>
+      </c>
+      <c r="M19">
         <v>14</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <f t="shared" si="7"/>
         <v>20</v>
       </c>
-      <c r="N19" s="1">
-        <v>5</v>
-      </c>
-      <c r="O19" s="5" t="s">
-        <v>22</v>
+      <c r="O19" s="1">
+        <v>5</v>
       </c>
       <c r="P19" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q19" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
+      </c>
+      <c r="Q19" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="R19" s="1"/>
-    </row>
-    <row r="20" customFormat="1" ht="27" customHeight="1" spans="3:18">
+      <c r="S19" s="1"/>
+    </row>
+    <row r="20" customFormat="1" ht="27" customHeight="1" spans="3:19">
       <c r="C20">
         <v>205</v>
       </c>
@@ -2065,33 +2109,34 @@
         <v>25</v>
       </c>
       <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
         <v>50</v>
       </c>
-      <c r="K20">
-        <v>5</v>
-      </c>
       <c r="L20">
+        <v>5</v>
+      </c>
+      <c r="M20">
         <v>14</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <f t="shared" si="7"/>
         <v>25</v>
       </c>
-      <c r="N20" s="1">
-        <v>5</v>
-      </c>
-      <c r="O20" s="5" t="s">
-        <v>22</v>
+      <c r="O20" s="1">
+        <v>5</v>
       </c>
       <c r="P20" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
+      </c>
+      <c r="Q20" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="R20" s="1"/>
-    </row>
-    <row r="21" customFormat="1" ht="27" customHeight="1" spans="3:18">
+      <c r="S20" s="1"/>
+    </row>
+    <row r="21" customFormat="1" ht="27" customHeight="1" spans="3:19">
       <c r="C21">
         <v>206</v>
       </c>
@@ -2117,33 +2162,34 @@
         <v>30</v>
       </c>
       <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
         <v>50</v>
       </c>
-      <c r="K21">
-        <v>5</v>
-      </c>
       <c r="L21">
+        <v>5</v>
+      </c>
+      <c r="M21">
         <v>14</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <f t="shared" si="7"/>
         <v>30</v>
       </c>
-      <c r="N21" s="1">
-        <v>5</v>
-      </c>
-      <c r="O21" s="5" t="s">
-        <v>22</v>
+      <c r="O21" s="1">
+        <v>5</v>
       </c>
       <c r="P21" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q21" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
+      </c>
+      <c r="Q21" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="R21" s="1"/>
-    </row>
-    <row r="22" customFormat="1" ht="27" customHeight="1" spans="3:18">
+      <c r="S21" s="1"/>
+    </row>
+    <row r="22" customFormat="1" ht="27" customHeight="1" spans="3:19">
       <c r="C22">
         <v>207</v>
       </c>
@@ -2169,33 +2215,34 @@
         <v>35</v>
       </c>
       <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
         <v>50</v>
       </c>
-      <c r="K22">
-        <v>5</v>
-      </c>
       <c r="L22">
+        <v>5</v>
+      </c>
+      <c r="M22">
         <v>14</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <f t="shared" si="7"/>
         <v>35</v>
       </c>
-      <c r="N22" s="1">
-        <v>5</v>
-      </c>
-      <c r="O22" s="5" t="s">
-        <v>22</v>
+      <c r="O22" s="1">
+        <v>5</v>
       </c>
       <c r="P22" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
+      </c>
+      <c r="Q22" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="R22" s="1"/>
-    </row>
-    <row r="23" customFormat="1" ht="27" customHeight="1" spans="3:18">
+      <c r="S22" s="1"/>
+    </row>
+    <row r="23" customFormat="1" ht="27" customHeight="1" spans="3:19">
       <c r="C23">
         <v>208</v>
       </c>
@@ -2221,33 +2268,34 @@
         <v>40</v>
       </c>
       <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
         <v>50</v>
       </c>
-      <c r="K23">
-        <v>5</v>
-      </c>
       <c r="L23">
+        <v>5</v>
+      </c>
+      <c r="M23">
         <v>14</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <f t="shared" si="7"/>
         <v>40</v>
       </c>
-      <c r="N23" s="1">
-        <v>5</v>
-      </c>
-      <c r="O23" s="5" t="s">
-        <v>22</v>
+      <c r="O23" s="1">
+        <v>5</v>
       </c>
       <c r="P23" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q23" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
+      </c>
+      <c r="Q23" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="R23" s="1"/>
-    </row>
-    <row r="24" customFormat="1" ht="27" customHeight="1" spans="3:18">
+      <c r="S23" s="1"/>
+    </row>
+    <row r="24" customFormat="1" ht="27" customHeight="1" spans="3:19">
       <c r="C24">
         <v>209</v>
       </c>
@@ -2273,33 +2321,34 @@
         <v>45</v>
       </c>
       <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
         <v>50</v>
       </c>
-      <c r="K24">
-        <v>5</v>
-      </c>
       <c r="L24">
+        <v>5</v>
+      </c>
+      <c r="M24">
         <v>14</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <f t="shared" si="7"/>
         <v>45</v>
       </c>
-      <c r="N24" s="1">
-        <v>5</v>
-      </c>
-      <c r="O24" s="5" t="s">
-        <v>22</v>
+      <c r="O24" s="1">
+        <v>5</v>
       </c>
       <c r="P24" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q24" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
+      </c>
+      <c r="Q24" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="R24" s="1"/>
-    </row>
-    <row r="25" customFormat="1" ht="27" customHeight="1" spans="3:18">
+      <c r="S24" s="1"/>
+    </row>
+    <row r="25" customFormat="1" ht="27" customHeight="1" spans="3:19">
       <c r="C25">
         <v>210</v>
       </c>
@@ -2325,213 +2374,562 @@
         <v>50</v>
       </c>
       <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
         <v>50</v>
       </c>
-      <c r="K25">
-        <v>5</v>
-      </c>
       <c r="L25">
+        <v>5</v>
+      </c>
+      <c r="M25">
         <v>14</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="N25" s="1">
-        <v>5</v>
-      </c>
-      <c r="O25" s="5" t="s">
-        <v>22</v>
+      <c r="O25" s="1">
+        <v>5</v>
       </c>
       <c r="P25" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q25" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
+      </c>
+      <c r="Q25" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="R25" s="1"/>
-    </row>
-    <row r="26" ht="24" customHeight="1" spans="3:18">
-      <c r="C26"/>
-      <c r="D26"/>
-      <c r="E26"/>
-      <c r="F26"/>
-      <c r="G26"/>
-      <c r="H26"/>
-      <c r="I26"/>
-      <c r="J26"/>
-      <c r="K26"/>
-      <c r="L26"/>
-      <c r="M26"/>
-      <c r="N26"/>
-      <c r="O26"/>
-      <c r="P26"/>
-      <c r="Q26"/>
-      <c r="R26"/>
-    </row>
-    <row r="27" ht="24" customHeight="1" spans="3:18">
-      <c r="C27"/>
-      <c r="D27"/>
-      <c r="E27"/>
-      <c r="F27"/>
-      <c r="G27"/>
-      <c r="H27"/>
-      <c r="I27"/>
-      <c r="J27"/>
-      <c r="K27"/>
-      <c r="L27"/>
-      <c r="M27"/>
-      <c r="N27"/>
-      <c r="O27"/>
-      <c r="P27"/>
-      <c r="Q27"/>
-      <c r="R27"/>
-    </row>
-    <row r="28" ht="24" customHeight="1" spans="3:18">
-      <c r="C28"/>
-      <c r="D28"/>
-      <c r="E28"/>
-      <c r="F28"/>
-      <c r="G28"/>
-      <c r="H28"/>
-      <c r="I28"/>
-      <c r="J28"/>
-      <c r="K28"/>
-      <c r="L28"/>
-      <c r="M28"/>
-      <c r="N28"/>
-      <c r="O28"/>
-      <c r="P28"/>
-      <c r="Q28"/>
-      <c r="R28"/>
-    </row>
-    <row r="29" ht="24" customHeight="1" spans="3:18">
-      <c r="C29"/>
-      <c r="D29"/>
-      <c r="E29"/>
-      <c r="F29"/>
-      <c r="G29"/>
-      <c r="H29"/>
-      <c r="I29"/>
-      <c r="J29"/>
-      <c r="K29"/>
-      <c r="L29"/>
-      <c r="M29"/>
-      <c r="N29"/>
-      <c r="O29"/>
-      <c r="P29"/>
-      <c r="Q29"/>
-      <c r="R29"/>
-    </row>
-    <row r="30" ht="24" customHeight="1" spans="3:18">
-      <c r="C30"/>
-      <c r="D30"/>
-      <c r="E30"/>
-      <c r="F30"/>
-      <c r="G30"/>
-      <c r="H30"/>
-      <c r="I30"/>
-      <c r="J30"/>
-      <c r="K30"/>
-      <c r="L30"/>
-      <c r="M30"/>
-      <c r="N30"/>
-      <c r="O30"/>
-      <c r="P30"/>
-      <c r="Q30"/>
-      <c r="R30"/>
-    </row>
-    <row r="31" ht="24" customHeight="1" spans="3:18">
-      <c r="C31"/>
-      <c r="D31"/>
-      <c r="E31"/>
-      <c r="F31"/>
-      <c r="G31"/>
-      <c r="H31"/>
-      <c r="I31"/>
-      <c r="J31"/>
-      <c r="K31"/>
-      <c r="L31"/>
-      <c r="M31"/>
-      <c r="N31"/>
-      <c r="O31"/>
-      <c r="P31"/>
-      <c r="Q31"/>
-      <c r="R31"/>
-    </row>
-    <row r="32" ht="24" customHeight="1" spans="3:18">
-      <c r="C32"/>
-      <c r="D32"/>
-      <c r="E32"/>
-      <c r="F32"/>
-      <c r="G32"/>
-      <c r="H32"/>
-      <c r="I32"/>
-      <c r="J32"/>
-      <c r="K32"/>
-      <c r="L32"/>
-      <c r="M32"/>
-      <c r="N32"/>
-      <c r="O32"/>
-      <c r="P32"/>
-      <c r="Q32"/>
-      <c r="R32"/>
-    </row>
-    <row r="33" ht="24" customHeight="1" spans="3:18">
-      <c r="C33"/>
-      <c r="D33"/>
-      <c r="E33"/>
-      <c r="F33"/>
-      <c r="G33"/>
-      <c r="H33"/>
-      <c r="I33"/>
-      <c r="J33"/>
-      <c r="K33"/>
-      <c r="L33"/>
-      <c r="M33"/>
-      <c r="N33"/>
-      <c r="O33"/>
-      <c r="P33"/>
-      <c r="Q33"/>
-      <c r="R33"/>
-    </row>
-    <row r="34" ht="24" customHeight="1" spans="3:18">
-      <c r="C34"/>
-      <c r="D34"/>
-      <c r="E34"/>
-      <c r="F34"/>
-      <c r="G34"/>
-      <c r="H34"/>
-      <c r="I34"/>
-      <c r="J34"/>
-      <c r="K34"/>
-      <c r="L34"/>
-      <c r="M34"/>
-      <c r="N34"/>
-      <c r="O34"/>
-      <c r="P34"/>
-      <c r="Q34"/>
-      <c r="R34"/>
-    </row>
-    <row r="35" ht="24" customHeight="1" spans="3:18">
-      <c r="C35"/>
-      <c r="D35"/>
-      <c r="E35"/>
-      <c r="F35"/>
-      <c r="G35"/>
-      <c r="H35"/>
-      <c r="I35"/>
-      <c r="J35"/>
-      <c r="K35"/>
-      <c r="L35"/>
-      <c r="M35"/>
-      <c r="N35"/>
-      <c r="O35"/>
-      <c r="P35"/>
-      <c r="Q35"/>
-      <c r="R35"/>
-    </row>
-    <row r="36" ht="24" customHeight="1" spans="3:18">
+      <c r="S25" s="1"/>
+    </row>
+    <row r="26" customFormat="1" ht="27" customHeight="1" spans="3:19">
+      <c r="C26">
+        <v>301</v>
+      </c>
+      <c r="D26">
+        <v>3</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>40000</v>
+      </c>
+      <c r="G26">
+        <v>80000</v>
+      </c>
+      <c r="H26">
+        <v>50000000</v>
+      </c>
+      <c r="I26">
+        <v>5</v>
+      </c>
+      <c r="J26">
+        <v>5</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>5</v>
+      </c>
+      <c r="M26">
+        <v>16</v>
+      </c>
+      <c r="N26">
+        <v>5</v>
+      </c>
+      <c r="O26" s="1">
+        <v>5</v>
+      </c>
+      <c r="P26" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q26" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="R26" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="S26" s="1"/>
+    </row>
+    <row r="27" customFormat="1" ht="27" customHeight="1" spans="3:19">
+      <c r="C27">
+        <v>302</v>
+      </c>
+      <c r="D27">
+        <v>3</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <f t="shared" ref="F27:F35" si="8">F26*L26</f>
+        <v>200000</v>
+      </c>
+      <c r="G27">
+        <f t="shared" ref="G27:G35" si="9">G26*L26</f>
+        <v>400000</v>
+      </c>
+      <c r="H27">
+        <f t="shared" ref="H27:H35" si="10">H26*L26</f>
+        <v>250000000</v>
+      </c>
+      <c r="I27">
+        <v>10</v>
+      </c>
+      <c r="J27">
+        <v>10</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>5</v>
+      </c>
+      <c r="M27">
+        <v>16</v>
+      </c>
+      <c r="N27">
+        <f t="shared" ref="N27:N35" si="11">N26+O26</f>
+        <v>10</v>
+      </c>
+      <c r="O27" s="1">
+        <v>5</v>
+      </c>
+      <c r="P27" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q27" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1"/>
+    </row>
+    <row r="28" customFormat="1" ht="27" customHeight="1" spans="3:19">
+      <c r="C28">
+        <v>303</v>
+      </c>
+      <c r="D28">
+        <v>3</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="8"/>
+        <v>1000000</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="9"/>
+        <v>2000000</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="10"/>
+        <v>1250000000</v>
+      </c>
+      <c r="I28">
+        <v>15</v>
+      </c>
+      <c r="J28">
+        <v>15</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>5</v>
+      </c>
+      <c r="M28">
+        <v>16</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="11"/>
+        <v>15</v>
+      </c>
+      <c r="O28" s="1">
+        <v>5</v>
+      </c>
+      <c r="P28" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q28" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+    </row>
+    <row r="29" customFormat="1" ht="27" customHeight="1" spans="3:19">
+      <c r="C29">
+        <v>304</v>
+      </c>
+      <c r="D29">
+        <v>3</v>
+      </c>
+      <c r="E29">
+        <v>4</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="8"/>
+        <v>5000000</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="9"/>
+        <v>10000000</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="10"/>
+        <v>6250000000</v>
+      </c>
+      <c r="I29">
+        <v>20</v>
+      </c>
+      <c r="J29">
+        <v>20</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>5</v>
+      </c>
+      <c r="M29">
+        <v>16</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="11"/>
+        <v>20</v>
+      </c>
+      <c r="O29" s="1">
+        <v>5</v>
+      </c>
+      <c r="P29" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q29" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="R29" s="1"/>
+      <c r="S29" s="1"/>
+    </row>
+    <row r="30" customFormat="1" ht="27" customHeight="1" spans="3:19">
+      <c r="C30">
+        <v>305</v>
+      </c>
+      <c r="D30">
+        <v>3</v>
+      </c>
+      <c r="E30">
+        <v>5</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="8"/>
+        <v>25000000</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="9"/>
+        <v>50000000</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="10"/>
+        <v>31250000000</v>
+      </c>
+      <c r="I30">
+        <v>25</v>
+      </c>
+      <c r="J30">
+        <v>25</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>5</v>
+      </c>
+      <c r="M30">
+        <v>16</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="11"/>
+        <v>25</v>
+      </c>
+      <c r="O30" s="1">
+        <v>5</v>
+      </c>
+      <c r="P30" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q30" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="R30" s="1"/>
+      <c r="S30" s="1"/>
+    </row>
+    <row r="31" customFormat="1" ht="27" customHeight="1" spans="3:19">
+      <c r="C31">
+        <v>306</v>
+      </c>
+      <c r="D31">
+        <v>3</v>
+      </c>
+      <c r="E31">
+        <v>6</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="8"/>
+        <v>125000000</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="9"/>
+        <v>250000000</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="10"/>
+        <v>156250000000</v>
+      </c>
+      <c r="I31">
+        <v>30</v>
+      </c>
+      <c r="J31">
+        <v>30</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>5</v>
+      </c>
+      <c r="M31">
+        <v>16</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="11"/>
+        <v>30</v>
+      </c>
+      <c r="O31" s="1">
+        <v>5</v>
+      </c>
+      <c r="P31" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q31" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="R31" s="1"/>
+      <c r="S31" s="1"/>
+    </row>
+    <row r="32" customFormat="1" ht="27" customHeight="1" spans="3:19">
+      <c r="C32">
+        <v>307</v>
+      </c>
+      <c r="D32">
+        <v>3</v>
+      </c>
+      <c r="E32">
+        <v>7</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="8"/>
+        <v>625000000</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="9"/>
+        <v>1250000000</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="10"/>
+        <v>781250000000</v>
+      </c>
+      <c r="I32">
+        <v>35</v>
+      </c>
+      <c r="J32">
+        <v>35</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>5</v>
+      </c>
+      <c r="M32">
+        <v>16</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="11"/>
+        <v>35</v>
+      </c>
+      <c r="O32" s="1">
+        <v>5</v>
+      </c>
+      <c r="P32" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q32" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="R32" s="1"/>
+      <c r="S32" s="1"/>
+    </row>
+    <row r="33" customFormat="1" ht="27" customHeight="1" spans="3:19">
+      <c r="C33">
+        <v>308</v>
+      </c>
+      <c r="D33">
+        <v>3</v>
+      </c>
+      <c r="E33">
+        <v>8</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="8"/>
+        <v>3125000000</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="9"/>
+        <v>6250000000</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="10"/>
+        <v>3906250000000</v>
+      </c>
+      <c r="I33">
+        <v>40</v>
+      </c>
+      <c r="J33">
+        <v>40</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>5</v>
+      </c>
+      <c r="M33">
+        <v>16</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="11"/>
+        <v>40</v>
+      </c>
+      <c r="O33" s="1">
+        <v>5</v>
+      </c>
+      <c r="P33" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q33" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="R33" s="1"/>
+      <c r="S33" s="1"/>
+    </row>
+    <row r="34" customFormat="1" ht="27" customHeight="1" spans="3:19">
+      <c r="C34">
+        <v>309</v>
+      </c>
+      <c r="D34">
+        <v>3</v>
+      </c>
+      <c r="E34">
+        <v>9</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="8"/>
+        <v>15625000000</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="9"/>
+        <v>31250000000</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="10"/>
+        <v>19531250000000</v>
+      </c>
+      <c r="I34">
+        <v>45</v>
+      </c>
+      <c r="J34">
+        <v>45</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>5</v>
+      </c>
+      <c r="M34">
+        <v>16</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="11"/>
+        <v>45</v>
+      </c>
+      <c r="O34" s="1">
+        <v>5</v>
+      </c>
+      <c r="P34" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q34" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="R34" s="1"/>
+      <c r="S34" s="1"/>
+    </row>
+    <row r="35" customFormat="1" ht="27" customHeight="1" spans="3:19">
+      <c r="C35">
+        <v>310</v>
+      </c>
+      <c r="D35">
+        <v>3</v>
+      </c>
+      <c r="E35">
+        <v>10</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="8"/>
+        <v>78125000000</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="9"/>
+        <v>156250000000</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="10"/>
+        <v>97656250000000</v>
+      </c>
+      <c r="I35">
+        <v>50</v>
+      </c>
+      <c r="J35">
+        <v>50</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>5</v>
+      </c>
+      <c r="M35">
+        <v>16</v>
+      </c>
+      <c r="N35">
+        <f t="shared" si="11"/>
+        <v>50</v>
+      </c>
+      <c r="O35" s="1">
+        <v>5</v>
+      </c>
+      <c r="P35" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q35" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="R35" s="1"/>
+      <c r="S35" s="1"/>
+    </row>
+    <row r="36" ht="24" customHeight="1" spans="3:19">
       <c r="C36"/>
       <c r="D36"/>
       <c r="E36"/>
@@ -2548,8 +2946,9 @@
       <c r="P36"/>
       <c r="Q36"/>
       <c r="R36"/>
-    </row>
-    <row r="37" ht="24" customHeight="1" spans="3:18">
+      <c r="S36"/>
+    </row>
+    <row r="37" ht="24" customHeight="1" spans="3:19">
       <c r="C37"/>
       <c r="D37"/>
       <c r="E37"/>
@@ -2566,8 +2965,9 @@
       <c r="P37"/>
       <c r="Q37"/>
       <c r="R37"/>
-    </row>
-    <row r="38" ht="24" customHeight="1" spans="3:18">
+      <c r="S37"/>
+    </row>
+    <row r="38" ht="24" customHeight="1" spans="3:19">
       <c r="C38"/>
       <c r="D38"/>
       <c r="E38"/>
@@ -2584,8 +2984,9 @@
       <c r="P38"/>
       <c r="Q38"/>
       <c r="R38"/>
-    </row>
-    <row r="39" ht="24" customHeight="1" spans="3:18">
+      <c r="S38"/>
+    </row>
+    <row r="39" ht="24" customHeight="1" spans="3:19">
       <c r="C39"/>
       <c r="D39"/>
       <c r="E39"/>
@@ -2602,10 +3003,11 @@
       <c r="P39"/>
       <c r="Q39"/>
       <c r="R39"/>
+      <c r="S39"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="D3 E3 F3 G3 H3 I3 J3 K3 L3 M3 D4 E4 F4 G4 H4 I4 J4 K4 L4 M4 D5 E5 F5 G5 H5 I5 J5 K5 L5 M5 C3:C5" errorStyle="warning">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="D3 E3 F3 G3 H3 I3 J3 K3 L3 M3 N3 D4 E4 F4 G4 H4 I4 J4 K4 L4 M4 N4 D5 E5 F5 G5 H5 I5 J5 K5 L5 M5 N5 C3:C5" errorStyle="warning">
       <formula1>COUNTIF($A:$A,C3)&lt;2</formula1>
     </dataValidation>
   </dataValidations>

--- a/Excel/PhantomAttrConfig.xlsx
+++ b/Excel/PhantomAttrConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="2" r:id="rId1"/>
@@ -57,7 +57,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W3" authorId="0">
+    <comment ref="Z3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="59">
   <si>
     <t>ID</t>
   </si>
@@ -109,6 +109,9 @@
     <t>Hp</t>
   </si>
   <si>
+    <t>AttrRise</t>
+  </si>
+  <si>
     <t>DamageIncrea</t>
   </si>
   <si>
@@ -121,15 +124,21 @@
     <t>CritDamage</t>
   </si>
   <si>
-    <t>AttrRise</t>
-  </si>
-  <si>
     <t>AttrAdvanceRise</t>
   </si>
   <si>
     <t>ResistType</t>
   </si>
   <si>
+    <t>AttrIdList</t>
+  </si>
+  <si>
+    <t>AttrValueList</t>
+  </si>
+  <si>
+    <t>AttrRiseList</t>
+  </si>
+  <si>
     <t>RewardId</t>
   </si>
   <si>
@@ -154,6 +163,9 @@
     <t>int</t>
   </si>
   <si>
+    <t>string</t>
+  </si>
+  <si>
     <t>double</t>
   </si>
   <si>
@@ -163,6 +175,9 @@
     <t>int[]</t>
   </si>
   <si>
+    <t>double[]</t>
+  </si>
+  <si>
     <t>13001</t>
   </si>
   <si>
@@ -197,6 +212,57 @@
   </si>
   <si>
     <t>13002,13007</t>
+  </si>
+  <si>
+    <t>1000000000000000</t>
+  </si>
+  <si>
+    <t>10000000000000</t>
+  </si>
+  <si>
+    <t>1000000000000000000</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>攻击倍率</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>1002</t>
+  </si>
+  <si>
+    <t>防御倍率</t>
+  </si>
+  <si>
+    <t>100000000000000000000</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>3001,3002</t>
+  </si>
+  <si>
+    <t>生命倍率</t>
   </si>
 </sst>
 </file>
@@ -1170,10 +1236,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Y12"/>
+  <dimension ref="A1:AB14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="S20" sqref="S20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -1184,26 +1250,28 @@
     <col min="4" max="6" width="12.125" style="1" customWidth="1"/>
     <col min="7" max="7" width="14.625" style="2" customWidth="1"/>
     <col min="8" max="8" width="13" style="2" customWidth="1"/>
-    <col min="9" max="9" width="25.375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="9" style="2" customWidth="1"/>
-    <col min="11" max="11" width="7.125" style="2" customWidth="1"/>
-    <col min="12" max="12" width="8.375" style="2" customWidth="1"/>
-    <col min="13" max="13" width="12.125" style="2" customWidth="1"/>
-    <col min="14" max="14" width="11.375" style="2" customWidth="1"/>
-    <col min="15" max="15" width="15.125" style="2" customWidth="1"/>
-    <col min="16" max="16" width="11.375" style="2" customWidth="1"/>
-    <col min="17" max="17" width="15.5" style="2" customWidth="1"/>
-    <col min="18" max="18" width="13" style="2" customWidth="1"/>
-    <col min="19" max="19" width="13.375" style="1" customWidth="1"/>
-    <col min="20" max="20" width="11.5" style="1" customWidth="1"/>
-    <col min="21" max="21" width="13.375" style="1" customWidth="1"/>
-    <col min="22" max="23" width="30.125" style="1" customWidth="1"/>
-    <col min="24" max="24" width="8.125" style="2" customWidth="1"/>
-    <col min="25" max="25" width="9.625" style="2" customWidth="1"/>
-    <col min="26" max="16384" width="9" style="2"/>
+    <col min="9" max="9" width="20" style="2" customWidth="1"/>
+    <col min="10" max="10" width="9.5" style="2" customWidth="1"/>
+    <col min="11" max="11" width="12.25" style="2" customWidth="1"/>
+    <col min="12" max="12" width="5.625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="5.875" style="2" customWidth="1"/>
+    <col min="14" max="14" width="6.5" style="2" customWidth="1"/>
+    <col min="15" max="15" width="5.875" style="2" customWidth="1"/>
+    <col min="16" max="16" width="6.25" style="2" customWidth="1"/>
+    <col min="17" max="17" width="18.5" style="2" customWidth="1"/>
+    <col min="18" max="19" width="15.125" style="2" customWidth="1"/>
+    <col min="20" max="20" width="12.5" style="2" customWidth="1"/>
+    <col min="21" max="21" width="13" style="2" customWidth="1"/>
+    <col min="22" max="22" width="13.375" style="1" customWidth="1"/>
+    <col min="23" max="23" width="11.5" style="1" customWidth="1"/>
+    <col min="24" max="24" width="13.375" style="1" customWidth="1"/>
+    <col min="25" max="26" width="30.125" style="1" customWidth="1"/>
+    <col min="27" max="27" width="8.125" style="2" customWidth="1"/>
+    <col min="28" max="28" width="9.625" style="2" customWidth="1"/>
+    <col min="29" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:25">
+    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:28">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="G1" s="2"/>
@@ -1218,10 +1286,13 @@
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
     </row>
-    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:25">
+    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:28">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="G2" s="2"/>
@@ -1236,10 +1307,13 @@
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
-      <c r="X2" s="2"/>
-      <c r="Y2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="2"/>
     </row>
-    <row r="3" s="1" customFormat="1" customHeight="1" spans="1:25">
+    <row r="3" s="1" customFormat="1" customHeight="1" spans="1:28">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="3" t="s">
@@ -1290,27 +1364,36 @@
       <c r="R3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="4" t="s">
+      <c r="S3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="T3" s="4" t="s">
+      <c r="T3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="U3" s="4" t="s">
+      <c r="U3" s="3" t="s">
         <v>18</v>
       </c>
       <c r="V3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="W3" s="4"/>
-      <c r="X3" s="2"/>
-      <c r="Y3" s="2"/>
+      <c r="W3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="X3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z3" s="4"/>
+      <c r="AA3" s="2"/>
+      <c r="AB3" s="2"/>
     </row>
-    <row r="4" s="1" customFormat="1" customHeight="1" spans="1:25">
+    <row r="4" s="1" customFormat="1" customHeight="1" spans="1:28">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>1</v>
@@ -1357,86 +1440,104 @@
       <c r="R4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="S4" s="4" t="s">
+      <c r="S4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="T4" s="4" t="s">
+      <c r="T4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="U4" s="4" t="s">
+      <c r="U4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="V4" s="4"/>
-      <c r="W4" s="4"/>
-      <c r="X4" s="2"/>
-      <c r="Y4" s="2"/>
+      <c r="V4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="W4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="X4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y4" s="4"/>
+      <c r="Z4" s="4"/>
+      <c r="AA4" s="2"/>
+      <c r="AB4" s="2"/>
     </row>
-    <row r="5" s="1" customFormat="1" customHeight="1" spans="1:25">
+    <row r="5" s="1" customFormat="1" customHeight="1" spans="1:28">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="R5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="S5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="T5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T5" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="U5" s="4" t="s">
+      <c r="U5" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="V5" s="4"/>
-      <c r="W5" s="4"/>
-      <c r="X5" s="2"/>
-      <c r="Y5" s="2"/>
+      <c r="V5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="W5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="X5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y5" s="4"/>
+      <c r="Z5" s="4"/>
+      <c r="AA5" s="2"/>
+      <c r="AB5" s="2"/>
     </row>
-    <row r="6" s="1" customFormat="1" customHeight="1" spans="3:22">
+    <row r="6" s="1" customFormat="1" customHeight="1" spans="3:25">
       <c r="C6" s="1">
         <v>1</v>
       </c>
@@ -1459,7 +1560,7 @@
         <v>5000000</v>
       </c>
       <c r="J6" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K6" s="1">
         <v>5</v>
@@ -1471,7 +1572,7 @@
         <v>5</v>
       </c>
       <c r="N6" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O6" s="1">
         <v>5</v>
@@ -1479,26 +1580,26 @@
       <c r="P6" s="1">
         <v>0</v>
       </c>
-      <c r="Q6" s="1">
+      <c r="T6" s="1">
         <v>15</v>
       </c>
-      <c r="R6" s="1">
-        <v>5</v>
-      </c>
-      <c r="S6" s="1">
-        <v>5</v>
-      </c>
-      <c r="T6" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="U6" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="V6" s="1" t="s">
-        <v>27</v>
+      <c r="U6" s="1">
+        <v>5</v>
+      </c>
+      <c r="V6" s="1">
+        <v>5</v>
+      </c>
+      <c r="W6" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="X6" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" customHeight="1" spans="3:22">
+    <row r="7" s="1" customFormat="1" customHeight="1" spans="3:25">
       <c r="C7" s="1">
         <v>201</v>
       </c>
@@ -1521,7 +1622,7 @@
         <v>50000000</v>
       </c>
       <c r="J7" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K7" s="1">
         <v>5</v>
@@ -1533,7 +1634,7 @@
         <v>5</v>
       </c>
       <c r="N7" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O7" s="1">
         <v>5</v>
@@ -1541,26 +1642,26 @@
       <c r="P7" s="1">
         <v>0</v>
       </c>
-      <c r="Q7" s="1">
+      <c r="T7" s="1">
         <v>14</v>
       </c>
-      <c r="R7" s="1">
-        <v>5</v>
-      </c>
-      <c r="S7" s="1">
-        <v>5</v>
-      </c>
-      <c r="T7" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="U7" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="V7" s="1" t="s">
-        <v>29</v>
+      <c r="U7" s="1">
+        <v>5</v>
+      </c>
+      <c r="V7" s="1">
+        <v>5</v>
+      </c>
+      <c r="W7" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="X7" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y7" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" customHeight="1" spans="3:22">
+    <row r="8" s="1" customFormat="1" customHeight="1" spans="3:25">
       <c r="C8" s="1">
         <v>301</v>
       </c>
@@ -1583,7 +1684,7 @@
         <v>50000000</v>
       </c>
       <c r="J8" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K8" s="1">
         <v>5</v>
@@ -1595,7 +1696,7 @@
         <v>5</v>
       </c>
       <c r="N8" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O8" s="1">
         <v>5</v>
@@ -1603,26 +1704,26 @@
       <c r="P8" s="1">
         <v>0</v>
       </c>
-      <c r="Q8" s="1">
+      <c r="T8" s="1">
         <v>16</v>
       </c>
-      <c r="R8" s="1">
-        <v>5</v>
-      </c>
-      <c r="S8" s="1">
-        <v>5</v>
-      </c>
-      <c r="T8" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="U8" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="V8" s="1" t="s">
-        <v>32</v>
+      <c r="U8" s="1">
+        <v>5</v>
+      </c>
+      <c r="V8" s="1">
+        <v>5</v>
+      </c>
+      <c r="W8" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="X8" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y8" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" customHeight="1" spans="3:22">
+    <row r="9" s="1" customFormat="1" customHeight="1" spans="3:25">
       <c r="C9" s="1">
         <v>401</v>
       </c>
@@ -1645,7 +1746,7 @@
         <v>100000000</v>
       </c>
       <c r="J9" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K9" s="1">
         <v>5</v>
@@ -1657,7 +1758,7 @@
         <v>5</v>
       </c>
       <c r="N9" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O9" s="1">
         <v>5</v>
@@ -1665,26 +1766,26 @@
       <c r="P9" s="1">
         <v>1</v>
       </c>
-      <c r="Q9" s="1">
+      <c r="T9" s="1">
         <v>26</v>
       </c>
-      <c r="R9" s="1">
-        <v>5</v>
-      </c>
-      <c r="S9" s="1">
-        <v>5</v>
-      </c>
-      <c r="T9" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="U9" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="V9" s="1" t="s">
-        <v>34</v>
+      <c r="U9" s="1">
+        <v>5</v>
+      </c>
+      <c r="V9" s="1">
+        <v>5</v>
+      </c>
+      <c r="W9" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="X9" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y9" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" customHeight="1" spans="3:22">
+    <row r="10" s="1" customFormat="1" customHeight="1" spans="3:25">
       <c r="C10" s="1">
         <v>501</v>
       </c>
@@ -1707,7 +1808,7 @@
         <v>100000000</v>
       </c>
       <c r="J10" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K10" s="1">
         <v>5</v>
@@ -1719,7 +1820,7 @@
         <v>5</v>
       </c>
       <c r="N10" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O10" s="1">
         <v>5</v>
@@ -1727,26 +1828,26 @@
       <c r="P10" s="1">
         <v>2</v>
       </c>
-      <c r="Q10" s="1">
+      <c r="T10" s="1">
         <v>27</v>
       </c>
-      <c r="R10" s="1">
-        <v>5</v>
-      </c>
-      <c r="S10" s="1">
-        <v>5</v>
-      </c>
-      <c r="T10" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="U10" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="V10" s="1" t="s">
-        <v>34</v>
+      <c r="U10" s="1">
+        <v>5</v>
+      </c>
+      <c r="V10" s="1">
+        <v>5</v>
+      </c>
+      <c r="W10" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="X10" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y10" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" customHeight="1" spans="3:22">
+    <row r="11" s="1" customFormat="1" customHeight="1" spans="3:25">
       <c r="C11" s="1">
         <v>601</v>
       </c>
@@ -1769,7 +1870,7 @@
         <v>100000000</v>
       </c>
       <c r="J11" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K11" s="1">
         <v>5</v>
@@ -1781,7 +1882,7 @@
         <v>5</v>
       </c>
       <c r="N11" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O11" s="1">
         <v>5</v>
@@ -1789,29 +1890,241 @@
       <c r="P11" s="1">
         <v>3</v>
       </c>
-      <c r="Q11" s="1">
+      <c r="T11" s="1">
         <v>28</v>
       </c>
-      <c r="R11" s="1">
-        <v>5</v>
-      </c>
-      <c r="S11" s="1">
-        <v>5</v>
-      </c>
-      <c r="T11" s="5" t="s">
+      <c r="U11" s="1">
+        <v>5</v>
+      </c>
+      <c r="V11" s="1">
+        <v>5</v>
+      </c>
+      <c r="W11" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="X11" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="U11" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="V11" s="1" t="s">
-        <v>34</v>
+      <c r="Y11" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" customHeight="1"/>
+    <row r="12" s="1" customFormat="1" customHeight="1" spans="3:25">
+      <c r="C12" s="1">
+        <v>701</v>
+      </c>
+      <c r="D12" s="1">
+        <v>7</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1">
+        <v>30</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="J12" s="1">
+        <v>3</v>
+      </c>
+      <c r="K12" s="1">
+        <v>2</v>
+      </c>
+      <c r="L12" s="1">
+        <v>5</v>
+      </c>
+      <c r="M12" s="1">
+        <v>5</v>
+      </c>
+      <c r="N12" s="1">
+        <v>5</v>
+      </c>
+      <c r="O12" s="1">
+        <v>5</v>
+      </c>
+      <c r="P12" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q12" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="R12" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="S12" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="T12" s="1">
+        <v>2001</v>
+      </c>
+      <c r="U12" s="1">
+        <v>1</v>
+      </c>
+      <c r="V12" s="1">
+        <v>1</v>
+      </c>
+      <c r="W12" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="X12" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y12" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" customHeight="1" spans="3:25">
+      <c r="C13" s="1">
+        <v>801</v>
+      </c>
+      <c r="D13" s="1">
+        <v>8</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1">
+        <v>30</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="J13" s="1">
+        <v>3</v>
+      </c>
+      <c r="K13" s="1">
+        <v>2</v>
+      </c>
+      <c r="L13" s="1">
+        <v>5</v>
+      </c>
+      <c r="M13" s="1">
+        <v>5</v>
+      </c>
+      <c r="N13" s="1">
+        <v>5</v>
+      </c>
+      <c r="O13" s="1">
+        <v>5</v>
+      </c>
+      <c r="P13" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q13" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="R13" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="S13" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="T13" s="1">
+        <v>2002</v>
+      </c>
+      <c r="U13" s="1">
+        <v>2</v>
+      </c>
+      <c r="V13" s="1">
+        <v>2</v>
+      </c>
+      <c r="W13" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="X13" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y13" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="1" customHeight="1" spans="3:25">
+      <c r="C14" s="1">
+        <v>901</v>
+      </c>
+      <c r="D14" s="1">
+        <v>9</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1">
+        <v>30</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="J14" s="1">
+        <v>3</v>
+      </c>
+      <c r="K14" s="1">
+        <v>2</v>
+      </c>
+      <c r="L14" s="1">
+        <v>5</v>
+      </c>
+      <c r="M14" s="1">
+        <v>5</v>
+      </c>
+      <c r="N14" s="1">
+        <v>5</v>
+      </c>
+      <c r="O14" s="1">
+        <v>5</v>
+      </c>
+      <c r="P14" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q14" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="R14" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="S14" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="T14" s="1">
+        <v>2003</v>
+      </c>
+      <c r="U14" s="1">
+        <v>3</v>
+      </c>
+      <c r="V14" s="1">
+        <v>3</v>
+      </c>
+      <c r="W14" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="X14" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y14" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="D3 E3 F3 G3 H3 I3 J3 K3 L3 N3 O3 P3 Q3 R3 D4 E4 F4 G4 H4 I4 J4 K4 L4 N4 O4 P4 Q4 R4 D5 E5 F5 G5 H5 I5 J5 K5 L5 M5 N5 O5 P5 Q5 R5 C3:C5 M3:M4" errorStyle="warning">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="D3 E3 F3 G3 H3 I3 J3 K3 L3 M3 O3 P3 Q3 R3 S3 T3 U3 D4 E4 F4 G4 H4 I4 J4 K4 L4 M4 O4 P4 Q4 R4 S4 T4 U4 D5 E5 F5 G5 H5 I5 J5 K5 L5 M5 N5 O5 P5 Q5 R5 S5 T5 U5 C3:C5 N3:N4" errorStyle="warning">
       <formula1>COUNTIF($A:$A,C3)&lt;2</formula1>
     </dataValidation>
   </dataValidations>

--- a/Excel/PhantomAttrConfig.xlsx
+++ b/Excel/PhantomAttrConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="2" r:id="rId1"/>
@@ -1239,7 +1239,7 @@
   <dimension ref="A1:AB14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="S20" sqref="S20"/>
+      <selection activeCell="P12" sqref="P12:P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -1950,7 +1950,7 @@
         <v>5</v>
       </c>
       <c r="P12" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q12" s="5" t="s">
         <v>45</v>
@@ -2021,7 +2021,7 @@
         <v>5</v>
       </c>
       <c r="P13" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q13" s="5" t="s">
         <v>49</v>
@@ -2092,7 +2092,7 @@
         <v>5</v>
       </c>
       <c r="P14" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q14" s="5" t="s">
         <v>55</v>

--- a/Excel/PhantomAttrConfig.xlsx
+++ b/Excel/PhantomAttrConfig.xlsx
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="62">
   <si>
     <t>ID</t>
   </si>
@@ -217,10 +217,10 @@
     <t>1000000000000000</t>
   </si>
   <si>
-    <t>10000000000000</t>
-  </si>
-  <si>
-    <t>1000000000000000000</t>
+    <t>100000000000000</t>
+  </si>
+  <si>
+    <t>10000000000000000000</t>
   </si>
   <si>
     <t>2010</t>
@@ -235,6 +235,12 @@
     <t>攻击倍率</t>
   </si>
   <si>
+    <t>10000000000000000</t>
+  </si>
+  <si>
+    <t>100000000000000000000</t>
+  </si>
+  <si>
     <t>2011</t>
   </si>
   <si>
@@ -250,13 +256,16 @@
     <t>防御倍率</t>
   </si>
   <si>
-    <t>100000000000000000000</t>
+    <t>1000000000000000000000</t>
   </si>
   <si>
     <t>23</t>
   </si>
   <si>
     <t>3</t>
+  </si>
+  <si>
+    <t>0.2</t>
   </si>
   <si>
     <t>3001,3002</t>
@@ -1236,10 +1245,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AB14"/>
+  <dimension ref="A1:AB18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12:P14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -1248,8 +1257,8 @@
     <col min="2" max="2" width="9" style="2"/>
     <col min="3" max="3" width="9.875" style="1" customWidth="1"/>
     <col min="4" max="6" width="12.125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="13" style="2" customWidth="1"/>
+    <col min="7" max="7" width="19.625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="18" style="2" customWidth="1"/>
     <col min="9" max="9" width="20" style="2" customWidth="1"/>
     <col min="10" max="10" width="9.5" style="2" customWidth="1"/>
     <col min="11" max="11" width="12.25" style="2" customWidth="1"/>
@@ -1548,7 +1557,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="1">
-        <v>30</v>
+        <v>200</v>
       </c>
       <c r="G6" s="1">
         <v>1000</v>
@@ -1560,7 +1569,7 @@
         <v>5000000</v>
       </c>
       <c r="J6" s="1">
-        <v>3</v>
+        <v>1.3</v>
       </c>
       <c r="K6" s="1">
         <v>5</v>
@@ -1610,7 +1619,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="1">
-        <v>30</v>
+        <v>200</v>
       </c>
       <c r="G7" s="1">
         <v>50000</v>
@@ -1622,7 +1631,7 @@
         <v>50000000</v>
       </c>
       <c r="J7" s="1">
-        <v>3</v>
+        <v>1.3</v>
       </c>
       <c r="K7" s="1">
         <v>5</v>
@@ -1672,7 +1681,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="1">
-        <v>30</v>
+        <v>200</v>
       </c>
       <c r="G8" s="1">
         <v>40000</v>
@@ -1684,7 +1693,7 @@
         <v>50000000</v>
       </c>
       <c r="J8" s="1">
-        <v>3</v>
+        <v>1.3</v>
       </c>
       <c r="K8" s="1">
         <v>5</v>
@@ -1734,7 +1743,7 @@
         <v>1</v>
       </c>
       <c r="F9" s="1">
-        <v>30</v>
+        <v>200</v>
       </c>
       <c r="G9" s="1">
         <v>100000</v>
@@ -1746,7 +1755,7 @@
         <v>100000000</v>
       </c>
       <c r="J9" s="1">
-        <v>3</v>
+        <v>1.3</v>
       </c>
       <c r="K9" s="1">
         <v>5</v>
@@ -1796,7 +1805,7 @@
         <v>1</v>
       </c>
       <c r="F10" s="1">
-        <v>30</v>
+        <v>200</v>
       </c>
       <c r="G10" s="1">
         <v>100000</v>
@@ -1808,7 +1817,7 @@
         <v>100000000</v>
       </c>
       <c r="J10" s="1">
-        <v>3</v>
+        <v>1.3</v>
       </c>
       <c r="K10" s="1">
         <v>5</v>
@@ -1858,7 +1867,7 @@
         <v>1</v>
       </c>
       <c r="F11" s="1">
-        <v>30</v>
+        <v>200</v>
       </c>
       <c r="G11" s="1">
         <v>100000</v>
@@ -1870,7 +1879,7 @@
         <v>100000000</v>
       </c>
       <c r="J11" s="1">
-        <v>3</v>
+        <v>1.3</v>
       </c>
       <c r="K11" s="1">
         <v>5</v>
@@ -1920,7 +1929,7 @@
         <v>1</v>
       </c>
       <c r="F12" s="1">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>42</v>
@@ -1932,7 +1941,7 @@
         <v>44</v>
       </c>
       <c r="J12" s="1">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="K12" s="1">
         <v>2</v>
@@ -1991,19 +2000,19 @@
         <v>1</v>
       </c>
       <c r="F13" s="1">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>43</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J13" s="1">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="K13" s="1">
         <v>2</v>
@@ -2024,13 +2033,13 @@
         <v>0</v>
       </c>
       <c r="Q13" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="R13" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="S13" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="T13" s="1">
         <v>2002</v>
@@ -2042,13 +2051,13 @@
         <v>2</v>
       </c>
       <c r="W13" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="X13" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="Y13" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" customHeight="1" spans="3:25">
@@ -2062,7 +2071,7 @@
         <v>1</v>
       </c>
       <c r="F14" s="1">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>43</v>
@@ -2071,10 +2080,10 @@
         <v>43</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J14" s="1">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="K14" s="1">
         <v>2</v>
@@ -2095,13 +2104,13 @@
         <v>0</v>
       </c>
       <c r="Q14" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="R14" s="5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="S14" s="5" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="T14" s="1">
         <v>2003</v>
@@ -2113,14 +2122,20 @@
         <v>3</v>
       </c>
       <c r="W14" s="5" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="X14" s="5" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="Y14" s="1" t="s">
-        <v>58</v>
-      </c>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" spans="7:7">
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" customHeight="1" spans="7:7">
+      <c r="G18" s="1"/>
     </row>
   </sheetData>
   <dataValidations count="1">

--- a/Excel/PhantomAttrConfig.xlsx
+++ b/Excel/PhantomAttrConfig.xlsx
@@ -1247,8 +1247,8 @@
   <sheetPr/>
   <dimension ref="A1:AB18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="V26" sqref="V26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -2045,10 +2045,10 @@
         <v>2002</v>
       </c>
       <c r="U13" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V13" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W13" s="5" t="s">
         <v>54</v>
@@ -2116,10 +2116,10 @@
         <v>2003</v>
       </c>
       <c r="U14" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V14" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W14" s="5" t="s">
         <v>60</v>

--- a/Excel/PhantomAttrConfig.xlsx
+++ b/Excel/PhantomAttrConfig.xlsx
@@ -1248,7 +1248,7 @@
   <dimension ref="A1:AB18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="V26" sqref="V26"/>
+      <selection activeCell="U21" sqref="U21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -2045,10 +2045,10 @@
         <v>2002</v>
       </c>
       <c r="U13" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V13" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W13" s="5" t="s">
         <v>54</v>
@@ -2116,10 +2116,10 @@
         <v>2003</v>
       </c>
       <c r="U14" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V14" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W14" s="5" t="s">
         <v>60</v>

--- a/Excel/PhantomAttrConfig.xlsx
+++ b/Excel/PhantomAttrConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="2" r:id="rId1"/>
@@ -57,7 +57,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z3" authorId="0">
+    <comment ref="AB3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="68">
   <si>
     <t>ID</t>
   </si>
@@ -130,6 +130,12 @@
     <t>ResistType</t>
   </si>
   <si>
+    <t>RequireId</t>
+  </si>
+  <si>
+    <t>RequireValue</t>
+  </si>
+  <si>
     <t>AttrIdList</t>
   </si>
   <si>
@@ -272,6 +278,18 @@
   </si>
   <si>
     <t>生命倍率</t>
+  </si>
+  <si>
+    <t>爆率加成</t>
+  </si>
+  <si>
+    <t>经验加成</t>
+  </si>
+  <si>
+    <t>金币加成</t>
+  </si>
+  <si>
+    <t>品质加成</t>
   </si>
 </sst>
 </file>
@@ -284,7 +302,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -306,6 +324,12 @@
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -787,137 +811,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -925,6 +949,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1245,10 +1270,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AB18"/>
+  <dimension ref="A1:AD18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="U21" sqref="U21"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -1266,21 +1291,21 @@
     <col min="13" max="13" width="5.875" style="2" customWidth="1"/>
     <col min="14" max="14" width="6.5" style="2" customWidth="1"/>
     <col min="15" max="15" width="5.875" style="2" customWidth="1"/>
-    <col min="16" max="16" width="6.25" style="2" customWidth="1"/>
-    <col min="17" max="17" width="18.5" style="2" customWidth="1"/>
-    <col min="18" max="19" width="15.125" style="2" customWidth="1"/>
-    <col min="20" max="20" width="12.5" style="2" customWidth="1"/>
-    <col min="21" max="21" width="13" style="2" customWidth="1"/>
-    <col min="22" max="22" width="13.375" style="1" customWidth="1"/>
-    <col min="23" max="23" width="11.5" style="1" customWidth="1"/>
+    <col min="16" max="18" width="8.25" style="2" customWidth="1"/>
+    <col min="19" max="19" width="14.5" style="2" customWidth="1"/>
+    <col min="20" max="21" width="15.125" style="2" customWidth="1"/>
+    <col min="22" max="22" width="12.5" style="2" customWidth="1"/>
+    <col min="23" max="23" width="13" style="2" customWidth="1"/>
     <col min="24" max="24" width="13.375" style="1" customWidth="1"/>
-    <col min="25" max="26" width="30.125" style="1" customWidth="1"/>
-    <col min="27" max="27" width="8.125" style="2" customWidth="1"/>
-    <col min="28" max="28" width="9.625" style="2" customWidth="1"/>
-    <col min="29" max="16384" width="9" style="2"/>
+    <col min="25" max="25" width="11.5" style="1" customWidth="1"/>
+    <col min="26" max="26" width="13.375" style="1" customWidth="1"/>
+    <col min="27" max="28" width="30.125" style="1" customWidth="1"/>
+    <col min="29" max="29" width="8.125" style="2" customWidth="1"/>
+    <col min="30" max="30" width="9.625" style="2" customWidth="1"/>
+    <col min="31" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:28">
+    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:30">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="G1" s="2"/>
@@ -1298,10 +1323,12 @@
       <c r="S1" s="2"/>
       <c r="T1" s="2"/>
       <c r="U1" s="2"/>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
     </row>
-    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:28">
+    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:30">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="G2" s="2"/>
@@ -1319,10 +1346,12 @@
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
       <c r="U2" s="2"/>
-      <c r="AA2" s="2"/>
-      <c r="AB2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="AC2" s="2"/>
+      <c r="AD2" s="2"/>
     </row>
-    <row r="3" s="1" customFormat="1" customHeight="1" spans="1:28">
+    <row r="3" s="1" customFormat="1" customHeight="1" spans="1:30">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="3" t="s">
@@ -1382,10 +1411,10 @@
       <c r="U3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="V3" s="4" t="s">
+      <c r="V3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="W3" s="4" t="s">
+      <c r="W3" s="3" t="s">
         <v>20</v>
       </c>
       <c r="X3" s="4" t="s">
@@ -1394,15 +1423,21 @@
       <c r="Y3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="Z3" s="4"/>
-      <c r="AA3" s="2"/>
-      <c r="AB3" s="2"/>
+      <c r="Z3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB3" s="4"/>
+      <c r="AC3" s="2"/>
+      <c r="AD3" s="2"/>
     </row>
-    <row r="4" s="1" customFormat="1" customHeight="1" spans="1:28">
+    <row r="4" s="1" customFormat="1" customHeight="1" spans="1:30">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>1</v>
@@ -1458,95 +1493,107 @@
       <c r="U4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="V4" s="4" t="s">
+      <c r="V4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="W4" s="4" t="s">
+      <c r="W4" s="3" t="s">
         <v>20</v>
       </c>
       <c r="X4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="Y4" s="4"/>
-      <c r="Z4" s="4"/>
-      <c r="AA4" s="2"/>
-      <c r="AB4" s="2"/>
+      <c r="Y4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA4" s="4"/>
+      <c r="AB4" s="4"/>
+      <c r="AC4" s="2"/>
+      <c r="AD4" s="2"/>
     </row>
-    <row r="5" s="1" customFormat="1" customHeight="1" spans="1:28">
+    <row r="5" s="1" customFormat="1" customHeight="1" spans="1:30">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N5" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="K5" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="O5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P5" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="P5" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="Q5" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="R5" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="S5" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="T5" s="3" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="U5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="V5" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="W5" s="4" t="s">
-        <v>28</v>
+        <v>31</v>
+      </c>
+      <c r="V5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="W5" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="X5" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y5" s="4"/>
-      <c r="Z5" s="4"/>
-      <c r="AA5" s="2"/>
-      <c r="AB5" s="2"/>
+        <v>26</v>
+      </c>
+      <c r="Y5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA5" s="4"/>
+      <c r="AB5" s="4"/>
+      <c r="AC5" s="2"/>
+      <c r="AD5" s="2"/>
     </row>
-    <row r="6" s="1" customFormat="1" customHeight="1" spans="3:25">
+    <row r="6" s="1" customFormat="1" customHeight="1" spans="3:27">
       <c r="C6" s="1">
         <v>1</v>
       </c>
@@ -1589,28 +1636,34 @@
       <c r="P6" s="1">
         <v>0</v>
       </c>
-      <c r="T6" s="1">
+      <c r="Q6" s="1">
+        <v>0</v>
+      </c>
+      <c r="R6" s="1">
+        <v>0</v>
+      </c>
+      <c r="V6" s="1">
         <v>15</v>
       </c>
-      <c r="U6" s="1">
-        <v>5</v>
-      </c>
-      <c r="V6" s="1">
-        <v>5</v>
-      </c>
-      <c r="W6" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="X6" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y6" s="1" t="s">
+      <c r="W6" s="1">
+        <v>5</v>
+      </c>
+      <c r="X6" s="1">
+        <v>5</v>
+      </c>
+      <c r="Y6" s="6" t="s">
         <v>32</v>
       </c>
+      <c r="Z6" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA6" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="7" s="1" customFormat="1" customHeight="1" spans="3:25">
+    <row r="7" s="1" customFormat="1" customHeight="1" spans="3:27">
       <c r="C7" s="1">
-        <v>201</v>
+        <v>2</v>
       </c>
       <c r="D7" s="1">
         <v>2</v>
@@ -1651,28 +1704,34 @@
       <c r="P7" s="1">
         <v>0</v>
       </c>
-      <c r="T7" s="1">
+      <c r="Q7" s="1">
+        <v>0</v>
+      </c>
+      <c r="R7" s="1">
+        <v>0</v>
+      </c>
+      <c r="V7" s="1">
         <v>14</v>
       </c>
-      <c r="U7" s="1">
-        <v>5</v>
-      </c>
-      <c r="V7" s="1">
-        <v>5</v>
-      </c>
-      <c r="W7" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="X7" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y7" s="1" t="s">
-        <v>34</v>
+      <c r="W7" s="1">
+        <v>5</v>
+      </c>
+      <c r="X7" s="1">
+        <v>5</v>
+      </c>
+      <c r="Y7" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z7" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA7" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" customHeight="1" spans="3:25">
+    <row r="8" s="1" customFormat="1" customHeight="1" spans="3:27">
       <c r="C8" s="1">
-        <v>301</v>
+        <v>3</v>
       </c>
       <c r="D8" s="1">
         <v>3</v>
@@ -1713,28 +1772,34 @@
       <c r="P8" s="1">
         <v>0</v>
       </c>
-      <c r="T8" s="1">
+      <c r="Q8" s="1">
+        <v>0</v>
+      </c>
+      <c r="R8" s="1">
+        <v>0</v>
+      </c>
+      <c r="V8" s="1">
         <v>16</v>
       </c>
-      <c r="U8" s="1">
-        <v>5</v>
-      </c>
-      <c r="V8" s="1">
-        <v>5</v>
-      </c>
-      <c r="W8" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="X8" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y8" s="1" t="s">
+      <c r="W8" s="1">
+        <v>5</v>
+      </c>
+      <c r="X8" s="1">
+        <v>5</v>
+      </c>
+      <c r="Y8" s="6" t="s">
         <v>37</v>
       </c>
+      <c r="Z8" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA8" s="1" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="9" s="1" customFormat="1" customHeight="1" spans="3:25">
+    <row r="9" s="1" customFormat="1" customHeight="1" spans="3:27">
       <c r="C9" s="1">
-        <v>401</v>
+        <v>4</v>
       </c>
       <c r="D9" s="1">
         <v>4</v>
@@ -1775,28 +1840,34 @@
       <c r="P9" s="1">
         <v>1</v>
       </c>
-      <c r="T9" s="1">
+      <c r="Q9" s="1">
+        <v>0</v>
+      </c>
+      <c r="R9" s="1">
+        <v>0</v>
+      </c>
+      <c r="V9" s="1">
         <v>26</v>
       </c>
-      <c r="U9" s="1">
-        <v>5</v>
-      </c>
-      <c r="V9" s="1">
-        <v>5</v>
-      </c>
-      <c r="W9" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="X9" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y9" s="1" t="s">
-        <v>39</v>
+      <c r="W9" s="1">
+        <v>5</v>
+      </c>
+      <c r="X9" s="1">
+        <v>5</v>
+      </c>
+      <c r="Y9" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z9" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA9" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" customHeight="1" spans="3:25">
+    <row r="10" s="1" customFormat="1" customHeight="1" spans="3:27">
       <c r="C10" s="1">
-        <v>501</v>
+        <v>5</v>
       </c>
       <c r="D10" s="1">
         <v>5</v>
@@ -1837,28 +1908,34 @@
       <c r="P10" s="1">
         <v>2</v>
       </c>
-      <c r="T10" s="1">
+      <c r="Q10" s="1">
+        <v>0</v>
+      </c>
+      <c r="R10" s="1">
+        <v>0</v>
+      </c>
+      <c r="V10" s="1">
         <v>27</v>
       </c>
-      <c r="U10" s="1">
-        <v>5</v>
-      </c>
-      <c r="V10" s="1">
-        <v>5</v>
-      </c>
-      <c r="W10" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="X10" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y10" s="1" t="s">
-        <v>39</v>
+      <c r="W10" s="1">
+        <v>5</v>
+      </c>
+      <c r="X10" s="1">
+        <v>5</v>
+      </c>
+      <c r="Y10" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z10" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA10" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" customHeight="1" spans="3:25">
+    <row r="11" s="1" customFormat="1" customHeight="1" spans="3:27">
       <c r="C11" s="1">
-        <v>601</v>
+        <v>6</v>
       </c>
       <c r="D11" s="1">
         <v>6</v>
@@ -1899,28 +1976,34 @@
       <c r="P11" s="1">
         <v>3</v>
       </c>
-      <c r="T11" s="1">
+      <c r="Q11" s="1">
+        <v>0</v>
+      </c>
+      <c r="R11" s="1">
+        <v>0</v>
+      </c>
+      <c r="V11" s="1">
         <v>28</v>
       </c>
-      <c r="U11" s="1">
-        <v>5</v>
-      </c>
-      <c r="V11" s="1">
-        <v>5</v>
-      </c>
-      <c r="W11" s="5" t="s">
+      <c r="W11" s="1">
+        <v>5</v>
+      </c>
+      <c r="X11" s="1">
+        <v>5</v>
+      </c>
+      <c r="Y11" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z11" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA11" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="X11" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y11" s="1" t="s">
-        <v>39</v>
-      </c>
     </row>
-    <row r="12" s="1" customFormat="1" customHeight="1" spans="3:25">
+    <row r="12" s="1" customFormat="1" customHeight="1" spans="3:27">
       <c r="C12" s="1">
-        <v>701</v>
+        <v>7</v>
       </c>
       <c r="D12" s="1">
         <v>7</v>
@@ -1931,14 +2014,14 @@
       <c r="F12" s="1">
         <v>100</v>
       </c>
-      <c r="G12" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="I12" s="5" t="s">
+      <c r="G12" s="6" t="s">
         <v>44</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>46</v>
       </c>
       <c r="J12" s="1">
         <v>1.5</v>
@@ -1961,37 +2044,43 @@
       <c r="P12" s="1">
         <v>0</v>
       </c>
-      <c r="Q12" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="R12" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="S12" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="T12" s="1">
+      <c r="Q12" s="1">
+        <v>0</v>
+      </c>
+      <c r="R12" s="1">
+        <v>0</v>
+      </c>
+      <c r="S12" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="T12" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="U12" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="V12" s="1">
         <v>2001</v>
       </c>
-      <c r="U12" s="1">
+      <c r="W12" s="1">
         <v>1</v>
       </c>
-      <c r="V12" s="1">
+      <c r="X12" s="1">
         <v>1</v>
       </c>
-      <c r="W12" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="X12" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y12" s="1" t="s">
-        <v>48</v>
+      <c r="Y12" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z12" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA12" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" customHeight="1" spans="3:25">
+    <row r="13" s="1" customFormat="1" customHeight="1" spans="3:27">
       <c r="C13" s="1">
-        <v>801</v>
+        <v>8</v>
       </c>
       <c r="D13" s="1">
         <v>8</v>
@@ -2002,14 +2091,14 @@
       <c r="F13" s="1">
         <v>100</v>
       </c>
-      <c r="G13" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>50</v>
+      <c r="G13" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>52</v>
       </c>
       <c r="J13" s="1">
         <v>1.5</v>
@@ -2032,37 +2121,43 @@
       <c r="P13" s="1">
         <v>0</v>
       </c>
-      <c r="Q13" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="R13" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="S13" s="5" t="s">
+      <c r="Q13" s="1">
+        <v>0</v>
+      </c>
+      <c r="R13" s="1">
+        <v>0</v>
+      </c>
+      <c r="S13" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="T13" s="1">
+      <c r="T13" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="U13" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="V13" s="1">
         <v>2002</v>
       </c>
-      <c r="U13" s="1">
+      <c r="W13" s="1">
         <v>1</v>
       </c>
-      <c r="V13" s="1">
+      <c r="X13" s="1">
         <v>1</v>
       </c>
-      <c r="W13" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="X13" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="Y13" s="1" t="s">
-        <v>55</v>
+      <c r="Y13" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z13" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA13" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
-    <row r="14" s="1" customFormat="1" customHeight="1" spans="3:25">
+    <row r="14" s="1" customFormat="1" customHeight="1" spans="3:27">
       <c r="C14" s="1">
-        <v>901</v>
+        <v>9</v>
       </c>
       <c r="D14" s="1">
         <v>9</v>
@@ -2073,14 +2168,14 @@
       <c r="F14" s="1">
         <v>100</v>
       </c>
-      <c r="G14" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>56</v>
+      <c r="G14" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>58</v>
       </c>
       <c r="J14" s="1">
         <v>1.5</v>
@@ -2103,43 +2198,315 @@
       <c r="P14" s="1">
         <v>0</v>
       </c>
-      <c r="Q14" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="R14" s="5" t="s">
+      <c r="Q14" s="1">
+        <v>0</v>
+      </c>
+      <c r="R14" s="1">
+        <v>0</v>
+      </c>
+      <c r="S14" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="T14" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="U14" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="V14" s="1">
+        <v>2003</v>
+      </c>
+      <c r="W14" s="1">
+        <v>1</v>
+      </c>
+      <c r="X14" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y14" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z14" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA14" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" s="1" customFormat="1" customHeight="1" spans="3:27">
+      <c r="C15" s="1">
+        <v>10</v>
+      </c>
+      <c r="D15" s="1">
+        <v>10</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1">
+        <v>100</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I15" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="S14" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="T14" s="1">
-        <v>2003</v>
-      </c>
-      <c r="U14" s="1">
+      <c r="J15" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="K15" s="1">
+        <v>2</v>
+      </c>
+      <c r="L15" s="1">
+        <v>5</v>
+      </c>
+      <c r="M15" s="1">
+        <v>5</v>
+      </c>
+      <c r="N15" s="1">
+        <v>5</v>
+      </c>
+      <c r="O15" s="1">
+        <v>5</v>
+      </c>
+      <c r="P15" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="5">
+        <v>18</v>
+      </c>
+      <c r="R15" s="1">
+        <v>100</v>
+      </c>
+      <c r="V15" s="5">
+        <v>18</v>
+      </c>
+      <c r="W15" s="1">
+        <v>10</v>
+      </c>
+      <c r="X15" s="1">
+        <v>10</v>
+      </c>
+      <c r="Y15" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z15" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA15" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" s="1" customFormat="1" customHeight="1" spans="3:27">
+      <c r="C16" s="1">
+        <v>11</v>
+      </c>
+      <c r="D16" s="1">
+        <v>11</v>
+      </c>
+      <c r="E16" s="1">
         <v>1</v>
       </c>
-      <c r="V14" s="1">
+      <c r="F16" s="1">
+        <v>100</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="J16" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="K16" s="1">
+        <v>2</v>
+      </c>
+      <c r="L16" s="1">
+        <v>5</v>
+      </c>
+      <c r="M16" s="1">
+        <v>5</v>
+      </c>
+      <c r="N16" s="1">
+        <v>5</v>
+      </c>
+      <c r="O16" s="1">
+        <v>5</v>
+      </c>
+      <c r="P16" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="5">
+        <v>19</v>
+      </c>
+      <c r="R16" s="1">
+        <v>100</v>
+      </c>
+      <c r="V16" s="5">
+        <v>19</v>
+      </c>
+      <c r="W16" s="1">
+        <v>10</v>
+      </c>
+      <c r="X16" s="1">
+        <v>10</v>
+      </c>
+      <c r="Y16" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z16" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA16" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" s="1" customFormat="1" customHeight="1" spans="3:27">
+      <c r="C17" s="1">
+        <v>12</v>
+      </c>
+      <c r="D17" s="1">
+        <v>12</v>
+      </c>
+      <c r="E17" s="1">
         <v>1</v>
       </c>
-      <c r="W14" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="X14" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="Y14" s="1" t="s">
-        <v>61</v>
+      <c r="F17" s="1">
+        <v>100</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="J17" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="K17" s="1">
+        <v>2</v>
+      </c>
+      <c r="L17" s="1">
+        <v>5</v>
+      </c>
+      <c r="M17" s="1">
+        <v>5</v>
+      </c>
+      <c r="N17" s="1">
+        <v>5</v>
+      </c>
+      <c r="O17" s="1">
+        <v>5</v>
+      </c>
+      <c r="P17" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="5">
+        <v>20</v>
+      </c>
+      <c r="R17" s="1">
+        <v>100</v>
+      </c>
+      <c r="V17" s="5">
+        <v>20</v>
+      </c>
+      <c r="W17" s="1">
+        <v>10</v>
+      </c>
+      <c r="X17" s="1">
+        <v>10</v>
+      </c>
+      <c r="Y17" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z17" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA17" s="1" t="s">
+        <v>66</v>
       </c>
     </row>
-    <row r="17" customHeight="1" spans="7:7">
-      <c r="G17" s="1"/>
-    </row>
-    <row r="18" customHeight="1" spans="7:7">
-      <c r="G18" s="1"/>
+    <row r="18" s="1" customFormat="1" customHeight="1" spans="3:27">
+      <c r="C18" s="1">
+        <v>13</v>
+      </c>
+      <c r="D18" s="1">
+        <v>13</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
+      <c r="F18" s="1">
+        <v>100</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="J18" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="K18" s="1">
+        <v>2</v>
+      </c>
+      <c r="L18" s="1">
+        <v>5</v>
+      </c>
+      <c r="M18" s="1">
+        <v>5</v>
+      </c>
+      <c r="N18" s="1">
+        <v>5</v>
+      </c>
+      <c r="O18" s="1">
+        <v>5</v>
+      </c>
+      <c r="P18" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="5">
+        <v>24</v>
+      </c>
+      <c r="R18" s="1">
+        <v>100</v>
+      </c>
+      <c r="V18" s="5">
+        <v>24</v>
+      </c>
+      <c r="W18" s="1">
+        <v>10</v>
+      </c>
+      <c r="X18" s="1">
+        <v>10</v>
+      </c>
+      <c r="Y18" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z18" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA18" s="1" t="s">
+        <v>67</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="D3 E3 F3 G3 H3 I3 J3 K3 L3 M3 O3 P3 Q3 R3 S3 T3 U3 D4 E4 F4 G4 H4 I4 J4 K4 L4 M4 O4 P4 Q4 R4 S4 T4 U4 D5 E5 F5 G5 H5 I5 J5 K5 L5 M5 N5 O5 P5 Q5 R5 S5 T5 U5 C3:C5 N3:N4" errorStyle="warning">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="D3 E3 F3 G3 H3 I3 J3 K3 L3 M3 O3 P3 Q3 R3 S3 T3 U3 V3 W3 D4 E4 F4 G4 H4 I4 J4 K4 L4 M4 O4 P4 Q4 R4 S4 T4 U4 V4 W4 D5 E5 F5 G5 H5 I5 J5 K5 L5 M5 N5 O5 P5 Q5 R5 S5 T5 U5 V5 W5 C3:C5 N3:N4" errorStyle="warning">
       <formula1>COUNTIF($A:$A,C3)&lt;2</formula1>
     </dataValidation>
   </dataValidations>

--- a/Excel/PhantomAttrConfig.xlsx
+++ b/Excel/PhantomAttrConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="2" r:id="rId1"/>
@@ -1272,8 +1272,8 @@
   <sheetPr/>
   <dimension ref="A1:AD18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="Q21" sqref="Q21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -2024,7 +2024,7 @@
         <v>46</v>
       </c>
       <c r="J12" s="1">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="K12" s="1">
         <v>2</v>
@@ -2101,7 +2101,7 @@
         <v>52</v>
       </c>
       <c r="J13" s="1">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="K13" s="1">
         <v>2</v>
@@ -2178,7 +2178,7 @@
         <v>58</v>
       </c>
       <c r="J14" s="1">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="K14" s="1">
         <v>2</v>
@@ -2255,7 +2255,7 @@
         <v>58</v>
       </c>
       <c r="J15" s="1">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="K15" s="1">
         <v>2</v>

--- a/Excel/PhantomAttrConfig.xlsx
+++ b/Excel/PhantomAttrConfig.xlsx
@@ -253,7 +253,7 @@
     <t>70</t>
   </si>
   <si>
-    <t>1</t>
+    <t>2</t>
   </si>
   <si>
     <t>1002</t>
@@ -1272,8 +1272,8 @@
   <sheetPr/>
   <dimension ref="A1:AD18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="T25" sqref="T25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>

--- a/Excel/PhantomAttrConfig.xlsx
+++ b/Excel/PhantomAttrConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="2" r:id="rId1"/>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="73">
   <si>
     <t>ID</t>
   </si>
@@ -290,6 +290,21 @@
   </si>
   <si>
     <t>品质加成</t>
+  </si>
+  <si>
+    <t>1000000000000000000</t>
+  </si>
+  <si>
+    <t>10000000000000000000000000</t>
+  </si>
+  <si>
+    <t>幸运</t>
+  </si>
+  <si>
+    <t>增伤</t>
+  </si>
+  <si>
+    <t>爆伤</t>
   </si>
 </sst>
 </file>
@@ -1270,10 +1285,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AD18"/>
+  <dimension ref="A1:AD21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="T25" sqref="T25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -1284,7 +1299,7 @@
     <col min="4" max="6" width="12.125" style="1" customWidth="1"/>
     <col min="7" max="7" width="19.625" style="2" customWidth="1"/>
     <col min="8" max="8" width="18" style="2" customWidth="1"/>
-    <col min="9" max="9" width="20" style="2" customWidth="1"/>
+    <col min="9" max="9" width="26" style="2" customWidth="1"/>
     <col min="10" max="10" width="9.5" style="2" customWidth="1"/>
     <col min="11" max="11" width="12.25" style="2" customWidth="1"/>
     <col min="12" max="12" width="5.625" style="2" customWidth="1"/>
@@ -1604,7 +1619,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="1">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="G6" s="1">
         <v>1000</v>
@@ -1672,7 +1687,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="1">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="G7" s="1">
         <v>50000</v>
@@ -1740,7 +1755,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="1">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="G8" s="1">
         <v>40000</v>
@@ -1808,7 +1823,7 @@
         <v>1</v>
       </c>
       <c r="F9" s="1">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="G9" s="1">
         <v>100000</v>
@@ -1876,7 +1891,7 @@
         <v>1</v>
       </c>
       <c r="F10" s="1">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="G10" s="1">
         <v>100000</v>
@@ -1944,7 +1959,7 @@
         <v>1</v>
       </c>
       <c r="F11" s="1">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="G11" s="1">
         <v>100000</v>
@@ -2012,7 +2027,7 @@
         <v>1</v>
       </c>
       <c r="F12" s="1">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="G12" s="6" t="s">
         <v>44</v>
@@ -2089,7 +2104,7 @@
         <v>1</v>
       </c>
       <c r="F13" s="1">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="G13" s="6" t="s">
         <v>45</v>
@@ -2166,7 +2181,7 @@
         <v>1</v>
       </c>
       <c r="F14" s="1">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="G14" s="6" t="s">
         <v>45</v>
@@ -2243,7 +2258,7 @@
         <v>1</v>
       </c>
       <c r="F15" s="1">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="G15" s="6" t="s">
         <v>45</v>
@@ -2311,7 +2326,7 @@
         <v>1</v>
       </c>
       <c r="F16" s="1">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="G16" s="6" t="s">
         <v>45</v>
@@ -2379,7 +2394,7 @@
         <v>1</v>
       </c>
       <c r="F17" s="1">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="G17" s="6" t="s">
         <v>45</v>
@@ -2447,7 +2462,7 @@
         <v>1</v>
       </c>
       <c r="F18" s="1">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="G18" s="6" t="s">
         <v>45</v>
@@ -2502,6 +2517,210 @@
       </c>
       <c r="AA18" s="1" t="s">
         <v>67</v>
+      </c>
+    </row>
+    <row r="19" s="1" customFormat="1" customHeight="1" spans="3:27">
+      <c r="C19" s="1">
+        <v>14</v>
+      </c>
+      <c r="D19" s="1">
+        <v>14</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1</v>
+      </c>
+      <c r="F19" s="1">
+        <v>500</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="J19" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="K19" s="1">
+        <v>2</v>
+      </c>
+      <c r="L19" s="1">
+        <v>5</v>
+      </c>
+      <c r="M19" s="1">
+        <v>5</v>
+      </c>
+      <c r="N19" s="1">
+        <v>5</v>
+      </c>
+      <c r="O19" s="1">
+        <v>5</v>
+      </c>
+      <c r="P19" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="5">
+        <v>7</v>
+      </c>
+      <c r="R19" s="1">
+        <v>10</v>
+      </c>
+      <c r="V19" s="5">
+        <v>7</v>
+      </c>
+      <c r="W19" s="1">
+        <v>1</v>
+      </c>
+      <c r="X19" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y19" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z19" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA19" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" s="1" customFormat="1" customHeight="1" spans="3:27">
+      <c r="C20" s="1">
+        <v>15</v>
+      </c>
+      <c r="D20" s="1">
+        <v>15</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1</v>
+      </c>
+      <c r="F20" s="1">
+        <v>500</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="J20" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="K20" s="1">
+        <v>2</v>
+      </c>
+      <c r="L20" s="1">
+        <v>5</v>
+      </c>
+      <c r="M20" s="1">
+        <v>5</v>
+      </c>
+      <c r="N20" s="1">
+        <v>5</v>
+      </c>
+      <c r="O20" s="1">
+        <v>5</v>
+      </c>
+      <c r="P20" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="5">
+        <v>9</v>
+      </c>
+      <c r="R20" s="1">
+        <v>10</v>
+      </c>
+      <c r="V20" s="5">
+        <v>9</v>
+      </c>
+      <c r="W20" s="1">
+        <v>1</v>
+      </c>
+      <c r="X20" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y20" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z20" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA20" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" s="1" customFormat="1" customHeight="1" spans="3:27">
+      <c r="C21" s="1">
+        <v>16</v>
+      </c>
+      <c r="D21" s="1">
+        <v>16</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1</v>
+      </c>
+      <c r="F21" s="1">
+        <v>500</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="J21" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="K21" s="1">
+        <v>2</v>
+      </c>
+      <c r="L21" s="1">
+        <v>5</v>
+      </c>
+      <c r="M21" s="1">
+        <v>5</v>
+      </c>
+      <c r="N21" s="1">
+        <v>5</v>
+      </c>
+      <c r="O21" s="1">
+        <v>5</v>
+      </c>
+      <c r="P21" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="5">
+        <v>12</v>
+      </c>
+      <c r="R21" s="1">
+        <v>10</v>
+      </c>
+      <c r="V21" s="5">
+        <v>12</v>
+      </c>
+      <c r="W21" s="1">
+        <v>1</v>
+      </c>
+      <c r="X21" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y21" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z21" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA21" s="1" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
